--- a/other/Evaluation grid.xlsx
+++ b/other/Evaluation grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthelme/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Dynamic_Project_London\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846FE25-472A-9E48-A19A-E1A2ED91178B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA855D-C291-4D90-8EDA-E19F6779C5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation criteria" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Teams =&gt;</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Commented code including the list of refernces used during development</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>1_</t>
   </si>
 </sst>
 </file>
@@ -569,19 +578,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="110.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.6875" customWidth="1"/>
+    <col min="2" max="2" width="110.1875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="17" width="4.5" customWidth="1"/>
-    <col min="18" max="24" width="9.33203125" customWidth="1"/>
+    <col min="18" max="24" width="9.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -611,7 +620,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="26" t="s">
         <v>3</v>
@@ -619,7 +628,9 @@
       <c r="C2" s="6">
         <v>1.5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -641,7 +652,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="25" t="s">
         <v>10</v>
@@ -649,7 +660,9 @@
       <c r="C3" s="6">
         <v>1.5</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -671,7 +684,7 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
@@ -679,7 +692,9 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -701,7 +716,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>11</v>
@@ -709,7 +724,9 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -731,7 +748,7 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="27" t="s">
         <v>12</v>
@@ -739,7 +756,9 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -761,7 +780,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27" t="s">
         <v>13</v>
@@ -769,7 +788,9 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -791,7 +812,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="27" t="s">
         <v>14</v>
@@ -799,7 +820,9 @@
       <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -821,7 +844,7 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="26" t="s">
         <v>5</v>
@@ -829,7 +852,9 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -851,7 +876,7 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
@@ -859,7 +884,9 @@
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -881,7 +908,7 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="19" t="s">
         <v>1</v>
@@ -892,7 +919,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
@@ -954,7 +981,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:24" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
@@ -962,7 +989,9 @@
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -984,7 +1013,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="24" t="s">
         <v>8</v>
@@ -1014,7 +1043,7 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="21" t="s">
         <v>6</v>
@@ -1044,7 +1073,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="13" t="s">
         <v>7</v>
@@ -1054,7 +1083,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ref="D15:Q15" si="1">SUM(D11:D14)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="1"/>
@@ -1116,7 +1145,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="16"/>
@@ -1142,7 +1171,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="16"/>
@@ -1168,7 +1197,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="16"/>
@@ -1194,7 +1223,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="16"/>
@@ -1220,7 +1249,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="16"/>
@@ -1246,7 +1275,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
@@ -1272,7 +1301,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="16"/>
@@ -1298,7 +1327,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16"/>
@@ -1324,7 +1353,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
@@ -1350,7 +1379,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16"/>
@@ -1376,7 +1405,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="16"/>
@@ -1402,7 +1431,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="16"/>
@@ -1428,7 +1457,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
@@ -1454,7 +1483,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="16"/>
@@ -1480,7 +1509,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="16"/>
@@ -1506,7 +1535,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="16"/>
@@ -1532,7 +1561,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="16"/>
@@ -1558,7 +1587,7 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="16"/>
@@ -1584,7 +1613,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="16"/>
@@ -1610,7 +1639,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="16"/>
@@ -1636,7 +1665,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="16"/>
@@ -1662,7 +1691,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="16"/>
@@ -1688,7 +1717,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="16"/>
@@ -1714,7 +1743,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="16"/>
@@ -1740,7 +1769,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="16"/>
@@ -1766,7 +1795,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="16"/>
@@ -1792,7 +1821,7 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="16"/>
@@ -1818,7 +1847,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="16"/>
@@ -1844,7 +1873,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="16"/>
@@ -1870,7 +1899,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="16"/>
@@ -1896,7 +1925,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="16"/>
@@ -1922,7 +1951,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="16"/>
@@ -1948,7 +1977,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="16"/>
@@ -1974,7 +2003,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="16"/>
@@ -2000,7 +2029,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="16"/>
@@ -2026,7 +2055,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="16"/>
@@ -2052,7 +2081,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="16"/>
@@ -2078,7 +2107,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="16"/>
@@ -2104,7 +2133,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="16"/>
@@ -2130,7 +2159,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="16"/>
@@ -2156,7 +2185,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="16"/>
@@ -2182,7 +2211,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="16"/>
@@ -2208,7 +2237,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="16"/>
@@ -2234,7 +2263,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="16"/>
@@ -2260,7 +2289,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="16"/>
@@ -2286,7 +2315,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="16"/>
@@ -2312,7 +2341,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="16"/>
@@ -2338,7 +2367,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="16"/>
@@ -2364,7 +2393,7 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="16"/>
@@ -2390,7 +2419,7 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="16"/>
@@ -2416,7 +2445,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="16"/>
@@ -2442,7 +2471,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="16"/>
@@ -2468,7 +2497,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="16"/>
@@ -2494,7 +2523,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
     </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="16"/>
@@ -2520,7 +2549,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="16"/>
@@ -2546,7 +2575,7 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="16"/>
@@ -2572,7 +2601,7 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="16"/>
@@ -2598,7 +2627,7 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="16"/>
@@ -2624,7 +2653,7 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="16"/>
@@ -2650,7 +2679,7 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="16"/>
@@ -2676,7 +2705,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="16"/>
@@ -2702,7 +2731,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="16"/>
@@ -2728,7 +2757,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="16"/>
@@ -2754,7 +2783,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="18"/>
@@ -2780,7 +2809,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="18"/>
@@ -2806,7 +2835,7 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="18"/>
@@ -2832,7 +2861,7 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="18"/>
@@ -2858,7 +2887,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="18"/>
@@ -2884,7 +2913,7 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
     </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="18"/>
@@ -2910,7 +2939,7 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
     </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="18"/>
@@ -2936,7 +2965,7 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
     </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="18"/>
@@ -2962,7 +2991,7 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
     </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="18"/>
@@ -2988,7 +3017,7 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
     </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="18"/>
@@ -3014,7 +3043,7 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
     </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="18"/>
@@ -3040,7 +3069,7 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
     </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="18"/>
@@ -3066,7 +3095,7 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
     </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="18"/>
@@ -3092,7 +3121,7 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="18"/>
@@ -3118,7 +3147,7 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
     </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="18"/>
@@ -3144,7 +3173,7 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
     </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="18"/>
@@ -3170,7 +3199,7 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
     </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="18"/>
@@ -3196,7 +3225,7 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
     </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="18"/>
@@ -3222,7 +3251,7 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="18"/>
@@ -3248,7 +3277,7 @@
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="18"/>
@@ -3274,7 +3303,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
     </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="18"/>
@@ -3300,7 +3329,7 @@
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
     </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="18"/>
@@ -3326,7 +3355,7 @@
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="18"/>
@@ -3352,7 +3381,7 @@
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
     </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="18"/>
@@ -3378,7 +3407,7 @@
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
     </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="18"/>
@@ -3404,7 +3433,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="18"/>
@@ -3430,7 +3459,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="18"/>
@@ -3456,7 +3485,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="18"/>
@@ -3482,7 +3511,7 @@
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
     </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="18"/>
@@ -3508,7 +3537,7 @@
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="18"/>
@@ -3534,7 +3563,7 @@
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="18"/>
@@ -3560,7 +3589,7 @@
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="18"/>
@@ -3586,7 +3615,7 @@
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
     </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="18"/>
@@ -3612,7 +3641,7 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
     </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="18"/>
@@ -3638,7 +3667,7 @@
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
     </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="18"/>
@@ -3664,7 +3693,7 @@
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
     </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="18"/>
@@ -3690,7 +3719,7 @@
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
     </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="18"/>
@@ -3716,7 +3745,7 @@
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
     </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="18"/>
@@ -3742,7 +3771,7 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="18"/>
@@ -3768,7 +3797,7 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="18"/>
@@ -3794,7 +3823,7 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="18"/>
@@ -3820,7 +3849,7 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="18"/>
@@ -3846,7 +3875,7 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="18"/>
@@ -3872,7 +3901,7 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="18"/>
@@ -3898,7 +3927,7 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="18"/>
@@ -3924,7 +3953,7 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="18"/>
@@ -3950,7 +3979,7 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
     </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="18"/>
@@ -3976,7 +4005,7 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="18"/>
@@ -4002,7 +4031,7 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="18"/>
@@ -4028,7 +4057,7 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="18"/>
@@ -4054,7 +4083,7 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="18"/>
@@ -4080,7 +4109,7 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="18"/>
@@ -4106,7 +4135,7 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="18"/>
@@ -4132,7 +4161,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="18"/>
@@ -4158,7 +4187,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="18"/>
@@ -4184,7 +4213,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="18"/>
@@ -4210,7 +4239,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="18"/>
@@ -4236,7 +4265,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
     </row>
-    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="18"/>
@@ -4262,7 +4291,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
     </row>
-    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="18"/>
@@ -4288,7 +4317,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="18"/>
@@ -4314,7 +4343,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="18"/>
@@ -4340,7 +4369,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="18"/>
@@ -4366,7 +4395,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
     </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="18"/>
@@ -4392,7 +4421,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="18"/>
@@ -4418,7 +4447,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="18"/>
@@ -4444,7 +4473,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="18"/>
@@ -4470,7 +4499,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="18"/>
@@ -4496,7 +4525,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="18"/>
@@ -4522,7 +4551,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="18"/>
@@ -4548,7 +4577,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="18"/>
@@ -4574,7 +4603,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="18"/>
@@ -4600,7 +4629,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="18"/>
@@ -4626,7 +4655,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="18"/>
@@ -4652,7 +4681,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="18"/>
@@ -4678,7 +4707,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="18"/>
@@ -4704,7 +4733,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="18"/>
@@ -4730,7 +4759,7 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="18"/>
@@ -4756,7 +4785,7 @@
       <c r="W155" s="9"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="18"/>
@@ -4782,7 +4811,7 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="18"/>
@@ -4808,7 +4837,7 @@
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="18"/>
@@ -4834,7 +4863,7 @@
       <c r="W158" s="9"/>
       <c r="X158" s="9"/>
     </row>
-    <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="18"/>
@@ -4860,7 +4889,7 @@
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
     </row>
-    <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="18"/>
@@ -4886,7 +4915,7 @@
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="18"/>
@@ -4912,7 +4941,7 @@
       <c r="W161" s="9"/>
       <c r="X161" s="9"/>
     </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="18"/>
@@ -4938,7 +4967,7 @@
       <c r="W162" s="9"/>
       <c r="X162" s="9"/>
     </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="18"/>
@@ -4964,7 +4993,7 @@
       <c r="W163" s="9"/>
       <c r="X163" s="9"/>
     </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="18"/>
@@ -4990,7 +5019,7 @@
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
     </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="18"/>
@@ -5016,7 +5045,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
     </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="18"/>
@@ -5042,7 +5071,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
     </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="18"/>
@@ -5068,7 +5097,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
     </row>
-    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="18"/>
@@ -5094,7 +5123,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
     </row>
-    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="18"/>
@@ -5120,7 +5149,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
     </row>
-    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="18"/>
@@ -5146,7 +5175,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
     </row>
-    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="18"/>
@@ -5172,7 +5201,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
     </row>
-    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="18"/>
@@ -5198,7 +5227,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
     </row>
-    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="18"/>
@@ -5224,7 +5253,7 @@
       <c r="W173" s="9"/>
       <c r="X173" s="9"/>
     </row>
-    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="18"/>
@@ -5250,7 +5279,7 @@
       <c r="W174" s="9"/>
       <c r="X174" s="9"/>
     </row>
-    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="18"/>
@@ -5276,7 +5305,7 @@
       <c r="W175" s="9"/>
       <c r="X175" s="9"/>
     </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="18"/>
@@ -5302,7 +5331,7 @@
       <c r="W176" s="9"/>
       <c r="X176" s="9"/>
     </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="18"/>
@@ -5328,7 +5357,7 @@
       <c r="W177" s="9"/>
       <c r="X177" s="9"/>
     </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="18"/>
@@ -5354,7 +5383,7 @@
       <c r="W178" s="9"/>
       <c r="X178" s="9"/>
     </row>
-    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="18"/>
@@ -5380,7 +5409,7 @@
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
     </row>
-    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="18"/>
@@ -5406,7 +5435,7 @@
       <c r="W180" s="9"/>
       <c r="X180" s="9"/>
     </row>
-    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="18"/>
@@ -5432,7 +5461,7 @@
       <c r="W181" s="9"/>
       <c r="X181" s="9"/>
     </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="18"/>
@@ -5458,7 +5487,7 @@
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
     </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="18"/>
@@ -5484,7 +5513,7 @@
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
     </row>
-    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="18"/>
@@ -5510,7 +5539,7 @@
       <c r="W184" s="9"/>
       <c r="X184" s="9"/>
     </row>
-    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="18"/>
@@ -5536,7 +5565,7 @@
       <c r="W185" s="9"/>
       <c r="X185" s="9"/>
     </row>
-    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="18"/>
@@ -5562,7 +5591,7 @@
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
     </row>
-    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="18"/>
@@ -5588,7 +5617,7 @@
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
     </row>
-    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="18"/>
@@ -5614,7 +5643,7 @@
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
     </row>
-    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="18"/>
@@ -5640,7 +5669,7 @@
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
     </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="18"/>
@@ -5666,7 +5695,7 @@
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
     </row>
-    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="18"/>
@@ -5692,7 +5721,7 @@
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
     </row>
-    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="18"/>
@@ -5718,7 +5747,7 @@
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
     </row>
-    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="18"/>
@@ -5744,7 +5773,7 @@
       <c r="W193" s="9"/>
       <c r="X193" s="9"/>
     </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="18"/>
@@ -5770,7 +5799,7 @@
       <c r="W194" s="9"/>
       <c r="X194" s="9"/>
     </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="18"/>
@@ -5796,7 +5825,7 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
     </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="18"/>
@@ -5822,7 +5851,7 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
     </row>
-    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="18"/>
@@ -5848,7 +5877,7 @@
       <c r="W197" s="9"/>
       <c r="X197" s="9"/>
     </row>
-    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="18"/>
@@ -5874,7 +5903,7 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
     </row>
-    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="18"/>
@@ -5900,7 +5929,7 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
     </row>
-    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="18"/>
@@ -5926,7 +5955,7 @@
       <c r="W200" s="9"/>
       <c r="X200" s="9"/>
     </row>
-    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="18"/>
@@ -5952,7 +5981,7 @@
       <c r="W201" s="9"/>
       <c r="X201" s="9"/>
     </row>
-    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="18"/>
@@ -5978,7 +6007,7 @@
       <c r="W202" s="9"/>
       <c r="X202" s="9"/>
     </row>
-    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="18"/>
@@ -6004,7 +6033,7 @@
       <c r="W203" s="9"/>
       <c r="X203" s="9"/>
     </row>
-    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="18"/>
@@ -6030,7 +6059,7 @@
       <c r="W204" s="9"/>
       <c r="X204" s="9"/>
     </row>
-    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="18"/>
@@ -6056,7 +6085,7 @@
       <c r="W205" s="9"/>
       <c r="X205" s="9"/>
     </row>
-    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="18"/>
@@ -6082,7 +6111,7 @@
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
     </row>
-    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="18"/>
@@ -6108,7 +6137,7 @@
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
     </row>
-    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="18"/>
@@ -6134,7 +6163,7 @@
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
     </row>
-    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="18"/>
@@ -6160,7 +6189,7 @@
       <c r="W209" s="9"/>
       <c r="X209" s="9"/>
     </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="18"/>
@@ -6186,7 +6215,7 @@
       <c r="W210" s="9"/>
       <c r="X210" s="9"/>
     </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="18"/>
@@ -6212,7 +6241,7 @@
       <c r="W211" s="9"/>
       <c r="X211" s="9"/>
     </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="18"/>
@@ -6238,7 +6267,7 @@
       <c r="W212" s="9"/>
       <c r="X212" s="9"/>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="18"/>
@@ -6264,7 +6293,7 @@
       <c r="W213" s="9"/>
       <c r="X213" s="9"/>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="18"/>
@@ -6290,7 +6319,7 @@
       <c r="W214" s="9"/>
       <c r="X214" s="9"/>
     </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="18"/>
@@ -6316,7 +6345,7 @@
       <c r="W215" s="9"/>
       <c r="X215" s="9"/>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="18"/>
@@ -6342,7 +6371,7 @@
       <c r="W216" s="9"/>
       <c r="X216" s="9"/>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="18"/>
@@ -6368,7 +6397,7 @@
       <c r="W217" s="9"/>
       <c r="X217" s="9"/>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="18"/>
@@ -6394,7 +6423,7 @@
       <c r="W218" s="9"/>
       <c r="X218" s="9"/>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="18"/>
@@ -6420,7 +6449,7 @@
       <c r="W219" s="9"/>
       <c r="X219" s="9"/>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="18"/>
@@ -6446,7 +6475,7 @@
       <c r="W220" s="9"/>
       <c r="X220" s="9"/>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="18"/>
@@ -6472,7 +6501,7 @@
       <c r="W221" s="9"/>
       <c r="X221" s="9"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="18"/>
@@ -6498,7 +6527,7 @@
       <c r="W222" s="9"/>
       <c r="X222" s="9"/>
     </row>
-    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="18"/>
@@ -6524,7 +6553,7 @@
       <c r="W223" s="9"/>
       <c r="X223" s="9"/>
     </row>
-    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="18"/>
@@ -6550,7 +6579,7 @@
       <c r="W224" s="9"/>
       <c r="X224" s="9"/>
     </row>
-    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="18"/>
@@ -6576,7 +6605,7 @@
       <c r="W225" s="9"/>
       <c r="X225" s="9"/>
     </row>
-    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="18"/>
@@ -6602,7 +6631,7 @@
       <c r="W226" s="9"/>
       <c r="X226" s="9"/>
     </row>
-    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="18"/>
@@ -6628,7 +6657,7 @@
       <c r="W227" s="9"/>
       <c r="X227" s="9"/>
     </row>
-    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="18"/>
@@ -6654,7 +6683,7 @@
       <c r="W228" s="9"/>
       <c r="X228" s="9"/>
     </row>
-    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="18"/>
@@ -6680,7 +6709,7 @@
       <c r="W229" s="9"/>
       <c r="X229" s="9"/>
     </row>
-    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="18"/>
@@ -6706,7 +6735,7 @@
       <c r="W230" s="9"/>
       <c r="X230" s="9"/>
     </row>
-    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="18"/>
@@ -6732,7 +6761,7 @@
       <c r="W231" s="9"/>
       <c r="X231" s="9"/>
     </row>
-    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="18"/>
@@ -6758,7 +6787,7 @@
       <c r="W232" s="9"/>
       <c r="X232" s="9"/>
     </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="18"/>
@@ -6784,7 +6813,7 @@
       <c r="W233" s="9"/>
       <c r="X233" s="9"/>
     </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="18"/>
@@ -6810,7 +6839,7 @@
       <c r="W234" s="9"/>
       <c r="X234" s="9"/>
     </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="18"/>
@@ -6836,7 +6865,7 @@
       <c r="W235" s="9"/>
       <c r="X235" s="9"/>
     </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="18"/>
@@ -6862,7 +6891,7 @@
       <c r="W236" s="9"/>
       <c r="X236" s="9"/>
     </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="18"/>
@@ -6888,7 +6917,7 @@
       <c r="W237" s="9"/>
       <c r="X237" s="9"/>
     </row>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="18"/>
@@ -6914,7 +6943,7 @@
       <c r="W238" s="9"/>
       <c r="X238" s="9"/>
     </row>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="18"/>
@@ -6940,7 +6969,7 @@
       <c r="W239" s="9"/>
       <c r="X239" s="9"/>
     </row>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="18"/>
@@ -6966,7 +6995,7 @@
       <c r="W240" s="9"/>
       <c r="X240" s="9"/>
     </row>
-    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="18"/>
@@ -6992,7 +7021,7 @@
       <c r="W241" s="9"/>
       <c r="X241" s="9"/>
     </row>
-    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="18"/>
@@ -7018,7 +7047,7 @@
       <c r="W242" s="9"/>
       <c r="X242" s="9"/>
     </row>
-    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="18"/>
@@ -7044,7 +7073,7 @@
       <c r="W243" s="9"/>
       <c r="X243" s="9"/>
     </row>
-    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="18"/>
@@ -7070,7 +7099,7 @@
       <c r="W244" s="9"/>
       <c r="X244" s="9"/>
     </row>
-    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="18"/>
@@ -7096,7 +7125,7 @@
       <c r="W245" s="9"/>
       <c r="X245" s="9"/>
     </row>
-    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="18"/>
@@ -7122,7 +7151,7 @@
       <c r="W246" s="9"/>
       <c r="X246" s="9"/>
     </row>
-    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="18"/>
@@ -7148,7 +7177,7 @@
       <c r="W247" s="9"/>
       <c r="X247" s="9"/>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="18"/>
@@ -7174,7 +7203,7 @@
       <c r="W248" s="9"/>
       <c r="X248" s="9"/>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="18"/>
@@ -7200,7 +7229,7 @@
       <c r="W249" s="9"/>
       <c r="X249" s="9"/>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="18"/>
@@ -7226,7 +7255,7 @@
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="18"/>
@@ -7252,7 +7281,7 @@
       <c r="W251" s="9"/>
       <c r="X251" s="9"/>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="18"/>
@@ -7278,7 +7307,7 @@
       <c r="W252" s="9"/>
       <c r="X252" s="9"/>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="18"/>
@@ -7304,7 +7333,7 @@
       <c r="W253" s="9"/>
       <c r="X253" s="9"/>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="18"/>
@@ -7330,7 +7359,7 @@
       <c r="W254" s="9"/>
       <c r="X254" s="9"/>
     </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="18"/>
@@ -7356,7 +7385,7 @@
       <c r="W255" s="9"/>
       <c r="X255" s="9"/>
     </row>
-    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="18"/>
@@ -7382,7 +7411,7 @@
       <c r="W256" s="9"/>
       <c r="X256" s="9"/>
     </row>
-    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="18"/>
@@ -7408,7 +7437,7 @@
       <c r="W257" s="9"/>
       <c r="X257" s="9"/>
     </row>
-    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="18"/>
@@ -7434,7 +7463,7 @@
       <c r="W258" s="9"/>
       <c r="X258" s="9"/>
     </row>
-    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="18"/>
@@ -7460,7 +7489,7 @@
       <c r="W259" s="9"/>
       <c r="X259" s="9"/>
     </row>
-    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="18"/>
@@ -7486,7 +7515,7 @@
       <c r="W260" s="9"/>
       <c r="X260" s="9"/>
     </row>
-    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="18"/>
@@ -7512,7 +7541,7 @@
       <c r="W261" s="9"/>
       <c r="X261" s="9"/>
     </row>
-    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="18"/>
@@ -7538,7 +7567,7 @@
       <c r="W262" s="9"/>
       <c r="X262" s="9"/>
     </row>
-    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="18"/>
@@ -7564,7 +7593,7 @@
       <c r="W263" s="9"/>
       <c r="X263" s="9"/>
     </row>
-    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="18"/>
@@ -7590,7 +7619,7 @@
       <c r="W264" s="9"/>
       <c r="X264" s="9"/>
     </row>
-    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="18"/>
@@ -7616,7 +7645,7 @@
       <c r="W265" s="9"/>
       <c r="X265" s="9"/>
     </row>
-    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="18"/>
@@ -7642,7 +7671,7 @@
       <c r="W266" s="9"/>
       <c r="X266" s="9"/>
     </row>
-    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="18"/>
@@ -7668,7 +7697,7 @@
       <c r="W267" s="9"/>
       <c r="X267" s="9"/>
     </row>
-    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="18"/>
@@ -7694,7 +7723,7 @@
       <c r="W268" s="9"/>
       <c r="X268" s="9"/>
     </row>
-    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="18"/>
@@ -7720,7 +7749,7 @@
       <c r="W269" s="9"/>
       <c r="X269" s="9"/>
     </row>
-    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="18"/>
@@ -7746,7 +7775,7 @@
       <c r="W270" s="9"/>
       <c r="X270" s="9"/>
     </row>
-    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="18"/>
@@ -7772,7 +7801,7 @@
       <c r="W271" s="9"/>
       <c r="X271" s="9"/>
     </row>
-    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="18"/>
@@ -7798,7 +7827,7 @@
       <c r="W272" s="9"/>
       <c r="X272" s="9"/>
     </row>
-    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="18"/>
@@ -7824,7 +7853,7 @@
       <c r="W273" s="9"/>
       <c r="X273" s="9"/>
     </row>
-    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="18"/>
@@ -7850,7 +7879,7 @@
       <c r="W274" s="9"/>
       <c r="X274" s="9"/>
     </row>
-    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="18"/>
@@ -7876,7 +7905,7 @@
       <c r="W275" s="9"/>
       <c r="X275" s="9"/>
     </row>
-    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="18"/>
@@ -7902,7 +7931,7 @@
       <c r="W276" s="9"/>
       <c r="X276" s="9"/>
     </row>
-    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="18"/>
@@ -7928,7 +7957,7 @@
       <c r="W277" s="9"/>
       <c r="X277" s="9"/>
     </row>
-    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="18"/>
@@ -7954,7 +7983,7 @@
       <c r="W278" s="9"/>
       <c r="X278" s="9"/>
     </row>
-    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="18"/>
@@ -7980,7 +8009,7 @@
       <c r="W279" s="9"/>
       <c r="X279" s="9"/>
     </row>
-    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="18"/>
@@ -8006,7 +8035,7 @@
       <c r="W280" s="9"/>
       <c r="X280" s="9"/>
     </row>
-    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="18"/>
@@ -8032,7 +8061,7 @@
       <c r="W281" s="9"/>
       <c r="X281" s="9"/>
     </row>
-    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="18"/>
@@ -8058,7 +8087,7 @@
       <c r="W282" s="9"/>
       <c r="X282" s="9"/>
     </row>
-    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="18"/>
@@ -8084,7 +8113,7 @@
       <c r="W283" s="9"/>
       <c r="X283" s="9"/>
     </row>
-    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="18"/>
@@ -8110,7 +8139,7 @@
       <c r="W284" s="9"/>
       <c r="X284" s="9"/>
     </row>
-    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="18"/>
@@ -8136,7 +8165,7 @@
       <c r="W285" s="9"/>
       <c r="X285" s="9"/>
     </row>
-    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="18"/>
@@ -8162,7 +8191,7 @@
       <c r="W286" s="9"/>
       <c r="X286" s="9"/>
     </row>
-    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="18"/>
@@ -8188,7 +8217,7 @@
       <c r="W287" s="9"/>
       <c r="X287" s="9"/>
     </row>
-    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="18"/>
@@ -8214,7 +8243,7 @@
       <c r="W288" s="9"/>
       <c r="X288" s="9"/>
     </row>
-    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="18"/>
@@ -8240,7 +8269,7 @@
       <c r="W289" s="9"/>
       <c r="X289" s="9"/>
     </row>
-    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="18"/>
@@ -8266,7 +8295,7 @@
       <c r="W290" s="9"/>
       <c r="X290" s="9"/>
     </row>
-    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="18"/>
@@ -8292,7 +8321,7 @@
       <c r="W291" s="9"/>
       <c r="X291" s="9"/>
     </row>
-    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="18"/>
@@ -8318,7 +8347,7 @@
       <c r="W292" s="9"/>
       <c r="X292" s="9"/>
     </row>
-    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="18"/>
@@ -8344,7 +8373,7 @@
       <c r="W293" s="9"/>
       <c r="X293" s="9"/>
     </row>
-    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="18"/>
@@ -8370,7 +8399,7 @@
       <c r="W294" s="9"/>
       <c r="X294" s="9"/>
     </row>
-    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="18"/>
@@ -8396,7 +8425,7 @@
       <c r="W295" s="9"/>
       <c r="X295" s="9"/>
     </row>
-    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="18"/>
@@ -8422,7 +8451,7 @@
       <c r="W296" s="9"/>
       <c r="X296" s="9"/>
     </row>
-    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="18"/>
@@ -8448,7 +8477,7 @@
       <c r="W297" s="9"/>
       <c r="X297" s="9"/>
     </row>
-    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="18"/>
@@ -8474,7 +8503,7 @@
       <c r="W298" s="9"/>
       <c r="X298" s="9"/>
     </row>
-    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="18"/>
@@ -8500,7 +8529,7 @@
       <c r="W299" s="9"/>
       <c r="X299" s="9"/>
     </row>
-    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="18"/>
@@ -8526,7 +8555,7 @@
       <c r="W300" s="9"/>
       <c r="X300" s="9"/>
     </row>
-    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="18"/>
@@ -8552,7 +8581,7 @@
       <c r="W301" s="9"/>
       <c r="X301" s="9"/>
     </row>
-    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="18"/>
@@ -8578,7 +8607,7 @@
       <c r="W302" s="9"/>
       <c r="X302" s="9"/>
     </row>
-    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="18"/>
@@ -8604,7 +8633,7 @@
       <c r="W303" s="9"/>
       <c r="X303" s="9"/>
     </row>
-    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="18"/>
@@ -8630,7 +8659,7 @@
       <c r="W304" s="9"/>
       <c r="X304" s="9"/>
     </row>
-    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="18"/>
@@ -8656,7 +8685,7 @@
       <c r="W305" s="9"/>
       <c r="X305" s="9"/>
     </row>
-    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="18"/>
@@ -8682,7 +8711,7 @@
       <c r="W306" s="9"/>
       <c r="X306" s="9"/>
     </row>
-    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="18"/>
@@ -8708,7 +8737,7 @@
       <c r="W307" s="9"/>
       <c r="X307" s="9"/>
     </row>
-    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="18"/>
@@ -8734,7 +8763,7 @@
       <c r="W308" s="9"/>
       <c r="X308" s="9"/>
     </row>
-    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="18"/>
@@ -8760,7 +8789,7 @@
       <c r="W309" s="9"/>
       <c r="X309" s="9"/>
     </row>
-    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="18"/>
@@ -8786,7 +8815,7 @@
       <c r="W310" s="9"/>
       <c r="X310" s="9"/>
     </row>
-    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="18"/>
@@ -8812,7 +8841,7 @@
       <c r="W311" s="9"/>
       <c r="X311" s="9"/>
     </row>
-    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="18"/>
@@ -8838,7 +8867,7 @@
       <c r="W312" s="9"/>
       <c r="X312" s="9"/>
     </row>
-    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="18"/>
@@ -8864,7 +8893,7 @@
       <c r="W313" s="9"/>
       <c r="X313" s="9"/>
     </row>
-    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="18"/>
@@ -8890,7 +8919,7 @@
       <c r="W314" s="9"/>
       <c r="X314" s="9"/>
     </row>
-    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="18"/>
@@ -8916,7 +8945,7 @@
       <c r="W315" s="9"/>
       <c r="X315" s="9"/>
     </row>
-    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="18"/>
@@ -8942,7 +8971,7 @@
       <c r="W316" s="9"/>
       <c r="X316" s="9"/>
     </row>
-    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="18"/>
@@ -8968,7 +8997,7 @@
       <c r="W317" s="9"/>
       <c r="X317" s="9"/>
     </row>
-    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="18"/>
@@ -8994,7 +9023,7 @@
       <c r="W318" s="9"/>
       <c r="X318" s="9"/>
     </row>
-    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="18"/>
@@ -9020,7 +9049,7 @@
       <c r="W319" s="9"/>
       <c r="X319" s="9"/>
     </row>
-    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="18"/>
@@ -9046,7 +9075,7 @@
       <c r="W320" s="9"/>
       <c r="X320" s="9"/>
     </row>
-    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="18"/>
@@ -9072,7 +9101,7 @@
       <c r="W321" s="9"/>
       <c r="X321" s="9"/>
     </row>
-    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="18"/>
@@ -9098,7 +9127,7 @@
       <c r="W322" s="9"/>
       <c r="X322" s="9"/>
     </row>
-    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="18"/>
@@ -9124,7 +9153,7 @@
       <c r="W323" s="9"/>
       <c r="X323" s="9"/>
     </row>
-    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="18"/>
@@ -9150,7 +9179,7 @@
       <c r="W324" s="9"/>
       <c r="X324" s="9"/>
     </row>
-    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="18"/>
@@ -9176,7 +9205,7 @@
       <c r="W325" s="9"/>
       <c r="X325" s="9"/>
     </row>
-    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="18"/>
@@ -9202,7 +9231,7 @@
       <c r="W326" s="9"/>
       <c r="X326" s="9"/>
     </row>
-    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="18"/>
@@ -9228,7 +9257,7 @@
       <c r="W327" s="9"/>
       <c r="X327" s="9"/>
     </row>
-    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="18"/>
@@ -9254,7 +9283,7 @@
       <c r="W328" s="9"/>
       <c r="X328" s="9"/>
     </row>
-    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="18"/>
@@ -9280,7 +9309,7 @@
       <c r="W329" s="9"/>
       <c r="X329" s="9"/>
     </row>
-    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="18"/>
@@ -9306,7 +9335,7 @@
       <c r="W330" s="9"/>
       <c r="X330" s="9"/>
     </row>
-    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="18"/>
@@ -9332,7 +9361,7 @@
       <c r="W331" s="9"/>
       <c r="X331" s="9"/>
     </row>
-    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="18"/>
@@ -9358,7 +9387,7 @@
       <c r="W332" s="9"/>
       <c r="X332" s="9"/>
     </row>
-    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="18"/>
@@ -9384,7 +9413,7 @@
       <c r="W333" s="9"/>
       <c r="X333" s="9"/>
     </row>
-    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="18"/>
@@ -9410,7 +9439,7 @@
       <c r="W334" s="9"/>
       <c r="X334" s="9"/>
     </row>
-    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="18"/>
@@ -9436,7 +9465,7 @@
       <c r="W335" s="9"/>
       <c r="X335" s="9"/>
     </row>
-    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="18"/>
@@ -9462,7 +9491,7 @@
       <c r="W336" s="9"/>
       <c r="X336" s="9"/>
     </row>
-    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="18"/>
@@ -9488,7 +9517,7 @@
       <c r="W337" s="9"/>
       <c r="X337" s="9"/>
     </row>
-    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="18"/>
@@ -9514,7 +9543,7 @@
       <c r="W338" s="9"/>
       <c r="X338" s="9"/>
     </row>
-    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="18"/>
@@ -9540,7 +9569,7 @@
       <c r="W339" s="9"/>
       <c r="X339" s="9"/>
     </row>
-    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="18"/>
@@ -9566,7 +9595,7 @@
       <c r="W340" s="9"/>
       <c r="X340" s="9"/>
     </row>
-    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="18"/>
@@ -9592,7 +9621,7 @@
       <c r="W341" s="9"/>
       <c r="X341" s="9"/>
     </row>
-    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="18"/>
@@ -9618,7 +9647,7 @@
       <c r="W342" s="9"/>
       <c r="X342" s="9"/>
     </row>
-    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="18"/>
@@ -9644,7 +9673,7 @@
       <c r="W343" s="9"/>
       <c r="X343" s="9"/>
     </row>
-    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="18"/>
@@ -9670,7 +9699,7 @@
       <c r="W344" s="9"/>
       <c r="X344" s="9"/>
     </row>
-    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="18"/>
@@ -9696,7 +9725,7 @@
       <c r="W345" s="9"/>
       <c r="X345" s="9"/>
     </row>
-    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="18"/>
@@ -9722,7 +9751,7 @@
       <c r="W346" s="9"/>
       <c r="X346" s="9"/>
     </row>
-    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="18"/>
@@ -9748,7 +9777,7 @@
       <c r="W347" s="9"/>
       <c r="X347" s="9"/>
     </row>
-    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="18"/>
@@ -9774,7 +9803,7 @@
       <c r="W348" s="9"/>
       <c r="X348" s="9"/>
     </row>
-    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="18"/>
@@ -9800,7 +9829,7 @@
       <c r="W349" s="9"/>
       <c r="X349" s="9"/>
     </row>
-    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="18"/>
@@ -9826,7 +9855,7 @@
       <c r="W350" s="9"/>
       <c r="X350" s="9"/>
     </row>
-    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="18"/>
@@ -9852,7 +9881,7 @@
       <c r="W351" s="9"/>
       <c r="X351" s="9"/>
     </row>
-    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="18"/>
@@ -9878,7 +9907,7 @@
       <c r="W352" s="9"/>
       <c r="X352" s="9"/>
     </row>
-    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="18"/>
@@ -9904,7 +9933,7 @@
       <c r="W353" s="9"/>
       <c r="X353" s="9"/>
     </row>
-    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="18"/>
@@ -9930,7 +9959,7 @@
       <c r="W354" s="9"/>
       <c r="X354" s="9"/>
     </row>
-    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="18"/>
@@ -9956,7 +9985,7 @@
       <c r="W355" s="9"/>
       <c r="X355" s="9"/>
     </row>
-    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="18"/>
@@ -9982,7 +10011,7 @@
       <c r="W356" s="9"/>
       <c r="X356" s="9"/>
     </row>
-    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="18"/>
@@ -10008,7 +10037,7 @@
       <c r="W357" s="9"/>
       <c r="X357" s="9"/>
     </row>
-    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="18"/>
@@ -10034,7 +10063,7 @@
       <c r="W358" s="9"/>
       <c r="X358" s="9"/>
     </row>
-    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="18"/>
@@ -10060,7 +10089,7 @@
       <c r="W359" s="9"/>
       <c r="X359" s="9"/>
     </row>
-    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="18"/>
@@ -10086,7 +10115,7 @@
       <c r="W360" s="9"/>
       <c r="X360" s="9"/>
     </row>
-    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="18"/>
@@ -10112,7 +10141,7 @@
       <c r="W361" s="9"/>
       <c r="X361" s="9"/>
     </row>
-    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="18"/>
@@ -10138,7 +10167,7 @@
       <c r="W362" s="9"/>
       <c r="X362" s="9"/>
     </row>
-    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="18"/>
@@ -10164,7 +10193,7 @@
       <c r="W363" s="9"/>
       <c r="X363" s="9"/>
     </row>
-    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="18"/>
@@ -10190,7 +10219,7 @@
       <c r="W364" s="9"/>
       <c r="X364" s="9"/>
     </row>
-    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="18"/>
@@ -10216,7 +10245,7 @@
       <c r="W365" s="9"/>
       <c r="X365" s="9"/>
     </row>
-    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="18"/>
@@ -10242,7 +10271,7 @@
       <c r="W366" s="9"/>
       <c r="X366" s="9"/>
     </row>
-    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="18"/>
@@ -10268,7 +10297,7 @@
       <c r="W367" s="9"/>
       <c r="X367" s="9"/>
     </row>
-    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="18"/>
@@ -10294,7 +10323,7 @@
       <c r="W368" s="9"/>
       <c r="X368" s="9"/>
     </row>
-    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="18"/>
@@ -10320,7 +10349,7 @@
       <c r="W369" s="9"/>
       <c r="X369" s="9"/>
     </row>
-    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="18"/>
@@ -10346,7 +10375,7 @@
       <c r="W370" s="9"/>
       <c r="X370" s="9"/>
     </row>
-    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="18"/>
@@ -10372,7 +10401,7 @@
       <c r="W371" s="9"/>
       <c r="X371" s="9"/>
     </row>
-    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="18"/>
@@ -10398,7 +10427,7 @@
       <c r="W372" s="9"/>
       <c r="X372" s="9"/>
     </row>
-    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="18"/>
@@ -10424,7 +10453,7 @@
       <c r="W373" s="9"/>
       <c r="X373" s="9"/>
     </row>
-    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="18"/>
@@ -10450,7 +10479,7 @@
       <c r="W374" s="9"/>
       <c r="X374" s="9"/>
     </row>
-    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="18"/>
@@ -10476,7 +10505,7 @@
       <c r="W375" s="9"/>
       <c r="X375" s="9"/>
     </row>
-    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="18"/>
@@ -10502,7 +10531,7 @@
       <c r="W376" s="9"/>
       <c r="X376" s="9"/>
     </row>
-    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="18"/>
@@ -10528,7 +10557,7 @@
       <c r="W377" s="9"/>
       <c r="X377" s="9"/>
     </row>
-    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="18"/>
@@ -10554,7 +10583,7 @@
       <c r="W378" s="9"/>
       <c r="X378" s="9"/>
     </row>
-    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="18"/>
@@ -10580,7 +10609,7 @@
       <c r="W379" s="9"/>
       <c r="X379" s="9"/>
     </row>
-    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="18"/>
@@ -10606,7 +10635,7 @@
       <c r="W380" s="9"/>
       <c r="X380" s="9"/>
     </row>
-    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="18"/>
@@ -10632,7 +10661,7 @@
       <c r="W381" s="9"/>
       <c r="X381" s="9"/>
     </row>
-    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="18"/>
@@ -10658,7 +10687,7 @@
       <c r="W382" s="9"/>
       <c r="X382" s="9"/>
     </row>
-    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="18"/>
@@ -10684,7 +10713,7 @@
       <c r="W383" s="9"/>
       <c r="X383" s="9"/>
     </row>
-    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="18"/>
@@ -10710,7 +10739,7 @@
       <c r="W384" s="9"/>
       <c r="X384" s="9"/>
     </row>
-    <row r="385" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="18"/>
@@ -10736,7 +10765,7 @@
       <c r="W385" s="9"/>
       <c r="X385" s="9"/>
     </row>
-    <row r="386" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="18"/>
@@ -10762,7 +10791,7 @@
       <c r="W386" s="9"/>
       <c r="X386" s="9"/>
     </row>
-    <row r="387" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="18"/>
@@ -10788,7 +10817,7 @@
       <c r="W387" s="9"/>
       <c r="X387" s="9"/>
     </row>
-    <row r="388" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="18"/>
@@ -10814,7 +10843,7 @@
       <c r="W388" s="9"/>
       <c r="X388" s="9"/>
     </row>
-    <row r="389" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="18"/>
@@ -10840,7 +10869,7 @@
       <c r="W389" s="9"/>
       <c r="X389" s="9"/>
     </row>
-    <row r="390" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="18"/>
@@ -10866,7 +10895,7 @@
       <c r="W390" s="9"/>
       <c r="X390" s="9"/>
     </row>
-    <row r="391" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="18"/>
@@ -10892,7 +10921,7 @@
       <c r="W391" s="9"/>
       <c r="X391" s="9"/>
     </row>
-    <row r="392" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="18"/>
@@ -10918,7 +10947,7 @@
       <c r="W392" s="9"/>
       <c r="X392" s="9"/>
     </row>
-    <row r="393" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="18"/>
@@ -10944,7 +10973,7 @@
       <c r="W393" s="9"/>
       <c r="X393" s="9"/>
     </row>
-    <row r="394" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="18"/>
@@ -10970,7 +10999,7 @@
       <c r="W394" s="9"/>
       <c r="X394" s="9"/>
     </row>
-    <row r="395" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="18"/>
@@ -10996,7 +11025,7 @@
       <c r="W395" s="9"/>
       <c r="X395" s="9"/>
     </row>
-    <row r="396" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="18"/>
@@ -11022,7 +11051,7 @@
       <c r="W396" s="9"/>
       <c r="X396" s="9"/>
     </row>
-    <row r="397" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="18"/>
@@ -11048,7 +11077,7 @@
       <c r="W397" s="9"/>
       <c r="X397" s="9"/>
     </row>
-    <row r="398" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="18"/>
@@ -11074,7 +11103,7 @@
       <c r="W398" s="9"/>
       <c r="X398" s="9"/>
     </row>
-    <row r="399" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="18"/>
@@ -11100,7 +11129,7 @@
       <c r="W399" s="9"/>
       <c r="X399" s="9"/>
     </row>
-    <row r="400" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="18"/>
@@ -11126,7 +11155,7 @@
       <c r="W400" s="9"/>
       <c r="X400" s="9"/>
     </row>
-    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="18"/>
@@ -11152,7 +11181,7 @@
       <c r="W401" s="9"/>
       <c r="X401" s="9"/>
     </row>
-    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="18"/>
@@ -11178,7 +11207,7 @@
       <c r="W402" s="9"/>
       <c r="X402" s="9"/>
     </row>
-    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="18"/>
@@ -11204,7 +11233,7 @@
       <c r="W403" s="9"/>
       <c r="X403" s="9"/>
     </row>
-    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="18"/>
@@ -11230,7 +11259,7 @@
       <c r="W404" s="9"/>
       <c r="X404" s="9"/>
     </row>
-    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="18"/>
@@ -11256,7 +11285,7 @@
       <c r="W405" s="9"/>
       <c r="X405" s="9"/>
     </row>
-    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="18"/>
@@ -11282,7 +11311,7 @@
       <c r="W406" s="9"/>
       <c r="X406" s="9"/>
     </row>
-    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="18"/>
@@ -11308,7 +11337,7 @@
       <c r="W407" s="9"/>
       <c r="X407" s="9"/>
     </row>
-    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="18"/>
@@ -11334,7 +11363,7 @@
       <c r="W408" s="9"/>
       <c r="X408" s="9"/>
     </row>
-    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="18"/>
@@ -11360,7 +11389,7 @@
       <c r="W409" s="9"/>
       <c r="X409" s="9"/>
     </row>
-    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="18"/>
@@ -11386,7 +11415,7 @@
       <c r="W410" s="9"/>
       <c r="X410" s="9"/>
     </row>
-    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="18"/>
@@ -11412,7 +11441,7 @@
       <c r="W411" s="9"/>
       <c r="X411" s="9"/>
     </row>
-    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="18"/>
@@ -11438,7 +11467,7 @@
       <c r="W412" s="9"/>
       <c r="X412" s="9"/>
     </row>
-    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="18"/>
@@ -11464,7 +11493,7 @@
       <c r="W413" s="9"/>
       <c r="X413" s="9"/>
     </row>
-    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="18"/>
@@ -11490,7 +11519,7 @@
       <c r="W414" s="9"/>
       <c r="X414" s="9"/>
     </row>
-    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="18"/>
@@ -11516,7 +11545,7 @@
       <c r="W415" s="9"/>
       <c r="X415" s="9"/>
     </row>
-    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="18"/>
@@ -11542,7 +11571,7 @@
       <c r="W416" s="9"/>
       <c r="X416" s="9"/>
     </row>
-    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="18"/>
@@ -11568,7 +11597,7 @@
       <c r="W417" s="9"/>
       <c r="X417" s="9"/>
     </row>
-    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="18"/>
@@ -11594,7 +11623,7 @@
       <c r="W418" s="9"/>
       <c r="X418" s="9"/>
     </row>
-    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="18"/>
@@ -11620,7 +11649,7 @@
       <c r="W419" s="9"/>
       <c r="X419" s="9"/>
     </row>
-    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="18"/>
@@ -11646,7 +11675,7 @@
       <c r="W420" s="9"/>
       <c r="X420" s="9"/>
     </row>
-    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="18"/>
@@ -11672,7 +11701,7 @@
       <c r="W421" s="9"/>
       <c r="X421" s="9"/>
     </row>
-    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="18"/>
@@ -11698,7 +11727,7 @@
       <c r="W422" s="9"/>
       <c r="X422" s="9"/>
     </row>
-    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="18"/>
@@ -11724,7 +11753,7 @@
       <c r="W423" s="9"/>
       <c r="X423" s="9"/>
     </row>
-    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="18"/>
@@ -11750,7 +11779,7 @@
       <c r="W424" s="9"/>
       <c r="X424" s="9"/>
     </row>
-    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="18"/>
@@ -11776,7 +11805,7 @@
       <c r="W425" s="9"/>
       <c r="X425" s="9"/>
     </row>
-    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="18"/>
@@ -11802,7 +11831,7 @@
       <c r="W426" s="9"/>
       <c r="X426" s="9"/>
     </row>
-    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="18"/>
@@ -11828,7 +11857,7 @@
       <c r="W427" s="9"/>
       <c r="X427" s="9"/>
     </row>
-    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="18"/>
@@ -11854,7 +11883,7 @@
       <c r="W428" s="9"/>
       <c r="X428" s="9"/>
     </row>
-    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="18"/>
@@ -11880,7 +11909,7 @@
       <c r="W429" s="9"/>
       <c r="X429" s="9"/>
     </row>
-    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="18"/>
@@ -11906,7 +11935,7 @@
       <c r="W430" s="9"/>
       <c r="X430" s="9"/>
     </row>
-    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="18"/>
@@ -11932,7 +11961,7 @@
       <c r="W431" s="9"/>
       <c r="X431" s="9"/>
     </row>
-    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="18"/>
@@ -11958,7 +11987,7 @@
       <c r="W432" s="9"/>
       <c r="X432" s="9"/>
     </row>
-    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="18"/>
@@ -11984,7 +12013,7 @@
       <c r="W433" s="9"/>
       <c r="X433" s="9"/>
     </row>
-    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="18"/>
@@ -12010,7 +12039,7 @@
       <c r="W434" s="9"/>
       <c r="X434" s="9"/>
     </row>
-    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="18"/>
@@ -12036,7 +12065,7 @@
       <c r="W435" s="9"/>
       <c r="X435" s="9"/>
     </row>
-    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="18"/>
@@ -12062,7 +12091,7 @@
       <c r="W436" s="9"/>
       <c r="X436" s="9"/>
     </row>
-    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="18"/>
@@ -12088,7 +12117,7 @@
       <c r="W437" s="9"/>
       <c r="X437" s="9"/>
     </row>
-    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="18"/>
@@ -12114,7 +12143,7 @@
       <c r="W438" s="9"/>
       <c r="X438" s="9"/>
     </row>
-    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="18"/>
@@ -12140,7 +12169,7 @@
       <c r="W439" s="9"/>
       <c r="X439" s="9"/>
     </row>
-    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="18"/>
@@ -12166,7 +12195,7 @@
       <c r="W440" s="9"/>
       <c r="X440" s="9"/>
     </row>
-    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="18"/>
@@ -12192,7 +12221,7 @@
       <c r="W441" s="9"/>
       <c r="X441" s="9"/>
     </row>
-    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="18"/>
@@ -12218,7 +12247,7 @@
       <c r="W442" s="9"/>
       <c r="X442" s="9"/>
     </row>
-    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="18"/>
@@ -12244,7 +12273,7 @@
       <c r="W443" s="9"/>
       <c r="X443" s="9"/>
     </row>
-    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="18"/>
@@ -12270,7 +12299,7 @@
       <c r="W444" s="9"/>
       <c r="X444" s="9"/>
     </row>
-    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="18"/>
@@ -12296,7 +12325,7 @@
       <c r="W445" s="9"/>
       <c r="X445" s="9"/>
     </row>
-    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="18"/>
@@ -12322,7 +12351,7 @@
       <c r="W446" s="9"/>
       <c r="X446" s="9"/>
     </row>
-    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="18"/>
@@ -12348,7 +12377,7 @@
       <c r="W447" s="9"/>
       <c r="X447" s="9"/>
     </row>
-    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="18"/>
@@ -12374,7 +12403,7 @@
       <c r="W448" s="9"/>
       <c r="X448" s="9"/>
     </row>
-    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="18"/>
@@ -12400,7 +12429,7 @@
       <c r="W449" s="9"/>
       <c r="X449" s="9"/>
     </row>
-    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="18"/>
@@ -12426,7 +12455,7 @@
       <c r="W450" s="9"/>
       <c r="X450" s="9"/>
     </row>
-    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="18"/>
@@ -12452,7 +12481,7 @@
       <c r="W451" s="9"/>
       <c r="X451" s="9"/>
     </row>
-    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="18"/>
@@ -12478,7 +12507,7 @@
       <c r="W452" s="9"/>
       <c r="X452" s="9"/>
     </row>
-    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="18"/>
@@ -12504,7 +12533,7 @@
       <c r="W453" s="9"/>
       <c r="X453" s="9"/>
     </row>
-    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="18"/>
@@ -12530,7 +12559,7 @@
       <c r="W454" s="9"/>
       <c r="X454" s="9"/>
     </row>
-    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="18"/>
@@ -12556,7 +12585,7 @@
       <c r="W455" s="9"/>
       <c r="X455" s="9"/>
     </row>
-    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="18"/>
@@ -12582,7 +12611,7 @@
       <c r="W456" s="9"/>
       <c r="X456" s="9"/>
     </row>
-    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="18"/>
@@ -12608,7 +12637,7 @@
       <c r="W457" s="9"/>
       <c r="X457" s="9"/>
     </row>
-    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="18"/>
@@ -12634,7 +12663,7 @@
       <c r="W458" s="9"/>
       <c r="X458" s="9"/>
     </row>
-    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="18"/>
@@ -12660,7 +12689,7 @@
       <c r="W459" s="9"/>
       <c r="X459" s="9"/>
     </row>
-    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="18"/>
@@ -12686,7 +12715,7 @@
       <c r="W460" s="9"/>
       <c r="X460" s="9"/>
     </row>
-    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="18"/>
@@ -12712,7 +12741,7 @@
       <c r="W461" s="9"/>
       <c r="X461" s="9"/>
     </row>
-    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="18"/>
@@ -12738,7 +12767,7 @@
       <c r="W462" s="9"/>
       <c r="X462" s="9"/>
     </row>
-    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="18"/>
@@ -12764,7 +12793,7 @@
       <c r="W463" s="9"/>
       <c r="X463" s="9"/>
     </row>
-    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="18"/>
@@ -12790,7 +12819,7 @@
       <c r="W464" s="9"/>
       <c r="X464" s="9"/>
     </row>
-    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="18"/>
@@ -12816,7 +12845,7 @@
       <c r="W465" s="9"/>
       <c r="X465" s="9"/>
     </row>
-    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="18"/>
@@ -12842,7 +12871,7 @@
       <c r="W466" s="9"/>
       <c r="X466" s="9"/>
     </row>
-    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="18"/>
@@ -12868,7 +12897,7 @@
       <c r="W467" s="9"/>
       <c r="X467" s="9"/>
     </row>
-    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="18"/>
@@ -12894,7 +12923,7 @@
       <c r="W468" s="9"/>
       <c r="X468" s="9"/>
     </row>
-    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="18"/>
@@ -12920,7 +12949,7 @@
       <c r="W469" s="9"/>
       <c r="X469" s="9"/>
     </row>
-    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="18"/>
@@ -12946,7 +12975,7 @@
       <c r="W470" s="9"/>
       <c r="X470" s="9"/>
     </row>
-    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="18"/>
@@ -12972,7 +13001,7 @@
       <c r="W471" s="9"/>
       <c r="X471" s="9"/>
     </row>
-    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="18"/>
@@ -12998,7 +13027,7 @@
       <c r="W472" s="9"/>
       <c r="X472" s="9"/>
     </row>
-    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="18"/>
@@ -13024,7 +13053,7 @@
       <c r="W473" s="9"/>
       <c r="X473" s="9"/>
     </row>
-    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="18"/>
@@ -13050,7 +13079,7 @@
       <c r="W474" s="9"/>
       <c r="X474" s="9"/>
     </row>
-    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="18"/>
@@ -13076,7 +13105,7 @@
       <c r="W475" s="9"/>
       <c r="X475" s="9"/>
     </row>
-    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="18"/>
@@ -13102,7 +13131,7 @@
       <c r="W476" s="9"/>
       <c r="X476" s="9"/>
     </row>
-    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="18"/>
@@ -13128,7 +13157,7 @@
       <c r="W477" s="9"/>
       <c r="X477" s="9"/>
     </row>
-    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="18"/>
@@ -13154,7 +13183,7 @@
       <c r="W478" s="9"/>
       <c r="X478" s="9"/>
     </row>
-    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="18"/>
@@ -13180,7 +13209,7 @@
       <c r="W479" s="9"/>
       <c r="X479" s="9"/>
     </row>
-    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="18"/>
@@ -13206,7 +13235,7 @@
       <c r="W480" s="9"/>
       <c r="X480" s="9"/>
     </row>
-    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="18"/>
@@ -13232,7 +13261,7 @@
       <c r="W481" s="9"/>
       <c r="X481" s="9"/>
     </row>
-    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="18"/>
@@ -13258,7 +13287,7 @@
       <c r="W482" s="9"/>
       <c r="X482" s="9"/>
     </row>
-    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="18"/>
@@ -13284,7 +13313,7 @@
       <c r="W483" s="9"/>
       <c r="X483" s="9"/>
     </row>
-    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="18"/>
@@ -13310,7 +13339,7 @@
       <c r="W484" s="9"/>
       <c r="X484" s="9"/>
     </row>
-    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="18"/>
@@ -13336,7 +13365,7 @@
       <c r="W485" s="9"/>
       <c r="X485" s="9"/>
     </row>
-    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="18"/>
@@ -13362,7 +13391,7 @@
       <c r="W486" s="9"/>
       <c r="X486" s="9"/>
     </row>
-    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="18"/>
@@ -13388,7 +13417,7 @@
       <c r="W487" s="9"/>
       <c r="X487" s="9"/>
     </row>
-    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="18"/>
@@ -13414,7 +13443,7 @@
       <c r="W488" s="9"/>
       <c r="X488" s="9"/>
     </row>
-    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="18"/>
@@ -13440,7 +13469,7 @@
       <c r="W489" s="9"/>
       <c r="X489" s="9"/>
     </row>
-    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="18"/>
@@ -13466,7 +13495,7 @@
       <c r="W490" s="9"/>
       <c r="X490" s="9"/>
     </row>
-    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="18"/>
@@ -13492,7 +13521,7 @@
       <c r="W491" s="9"/>
       <c r="X491" s="9"/>
     </row>
-    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="18"/>
@@ -13518,7 +13547,7 @@
       <c r="W492" s="9"/>
       <c r="X492" s="9"/>
     </row>
-    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="18"/>
@@ -13544,7 +13573,7 @@
       <c r="W493" s="9"/>
       <c r="X493" s="9"/>
     </row>
-    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="18"/>
@@ -13570,7 +13599,7 @@
       <c r="W494" s="9"/>
       <c r="X494" s="9"/>
     </row>
-    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="18"/>
@@ -13596,7 +13625,7 @@
       <c r="W495" s="9"/>
       <c r="X495" s="9"/>
     </row>
-    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="18"/>
@@ -13622,7 +13651,7 @@
       <c r="W496" s="9"/>
       <c r="X496" s="9"/>
     </row>
-    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="18"/>
@@ -13648,7 +13677,7 @@
       <c r="W497" s="9"/>
       <c r="X497" s="9"/>
     </row>
-    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="18"/>
@@ -13674,7 +13703,7 @@
       <c r="W498" s="9"/>
       <c r="X498" s="9"/>
     </row>
-    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="18"/>
@@ -13700,7 +13729,7 @@
       <c r="W499" s="9"/>
       <c r="X499" s="9"/>
     </row>
-    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="18"/>
@@ -13726,7 +13755,7 @@
       <c r="W500" s="9"/>
       <c r="X500" s="9"/>
     </row>
-    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="18"/>
@@ -13752,7 +13781,7 @@
       <c r="W501" s="9"/>
       <c r="X501" s="9"/>
     </row>
-    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="18"/>
@@ -13778,7 +13807,7 @@
       <c r="W502" s="9"/>
       <c r="X502" s="9"/>
     </row>
-    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="18"/>
@@ -13804,7 +13833,7 @@
       <c r="W503" s="9"/>
       <c r="X503" s="9"/>
     </row>
-    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="18"/>
@@ -13830,7 +13859,7 @@
       <c r="W504" s="9"/>
       <c r="X504" s="9"/>
     </row>
-    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="18"/>
@@ -13856,7 +13885,7 @@
       <c r="W505" s="9"/>
       <c r="X505" s="9"/>
     </row>
-    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="18"/>
@@ -13882,7 +13911,7 @@
       <c r="W506" s="9"/>
       <c r="X506" s="9"/>
     </row>
-    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="18"/>
@@ -13908,7 +13937,7 @@
       <c r="W507" s="9"/>
       <c r="X507" s="9"/>
     </row>
-    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="18"/>
@@ -13934,7 +13963,7 @@
       <c r="W508" s="9"/>
       <c r="X508" s="9"/>
     </row>
-    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="18"/>
@@ -13960,7 +13989,7 @@
       <c r="W509" s="9"/>
       <c r="X509" s="9"/>
     </row>
-    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="18"/>
@@ -13986,7 +14015,7 @@
       <c r="W510" s="9"/>
       <c r="X510" s="9"/>
     </row>
-    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="18"/>
@@ -14012,7 +14041,7 @@
       <c r="W511" s="9"/>
       <c r="X511" s="9"/>
     </row>
-    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="18"/>
@@ -14038,7 +14067,7 @@
       <c r="W512" s="9"/>
       <c r="X512" s="9"/>
     </row>
-    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="18"/>
@@ -14064,7 +14093,7 @@
       <c r="W513" s="9"/>
       <c r="X513" s="9"/>
     </row>
-    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="18"/>
@@ -14090,7 +14119,7 @@
       <c r="W514" s="9"/>
       <c r="X514" s="9"/>
     </row>
-    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="18"/>
@@ -14116,7 +14145,7 @@
       <c r="W515" s="9"/>
       <c r="X515" s="9"/>
     </row>
-    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="18"/>
@@ -14142,7 +14171,7 @@
       <c r="W516" s="9"/>
       <c r="X516" s="9"/>
     </row>
-    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="18"/>
@@ -14168,7 +14197,7 @@
       <c r="W517" s="9"/>
       <c r="X517" s="9"/>
     </row>
-    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="18"/>
@@ -14194,7 +14223,7 @@
       <c r="W518" s="9"/>
       <c r="X518" s="9"/>
     </row>
-    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="18"/>
@@ -14220,7 +14249,7 @@
       <c r="W519" s="9"/>
       <c r="X519" s="9"/>
     </row>
-    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="18"/>
@@ -14246,7 +14275,7 @@
       <c r="W520" s="9"/>
       <c r="X520" s="9"/>
     </row>
-    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="18"/>
@@ -14272,7 +14301,7 @@
       <c r="W521" s="9"/>
       <c r="X521" s="9"/>
     </row>
-    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="18"/>
@@ -14298,7 +14327,7 @@
       <c r="W522" s="9"/>
       <c r="X522" s="9"/>
     </row>
-    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="18"/>
@@ -14324,7 +14353,7 @@
       <c r="W523" s="9"/>
       <c r="X523" s="9"/>
     </row>
-    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="18"/>
@@ -14350,7 +14379,7 @@
       <c r="W524" s="9"/>
       <c r="X524" s="9"/>
     </row>
-    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="18"/>
@@ -14376,7 +14405,7 @@
       <c r="W525" s="9"/>
       <c r="X525" s="9"/>
     </row>
-    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="18"/>
@@ -14402,7 +14431,7 @@
       <c r="W526" s="9"/>
       <c r="X526" s="9"/>
     </row>
-    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="18"/>
@@ -14428,7 +14457,7 @@
       <c r="W527" s="9"/>
       <c r="X527" s="9"/>
     </row>
-    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="18"/>
@@ -14454,7 +14483,7 @@
       <c r="W528" s="9"/>
       <c r="X528" s="9"/>
     </row>
-    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="18"/>
@@ -14480,7 +14509,7 @@
       <c r="W529" s="9"/>
       <c r="X529" s="9"/>
     </row>
-    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="18"/>
@@ -14506,7 +14535,7 @@
       <c r="W530" s="9"/>
       <c r="X530" s="9"/>
     </row>
-    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="18"/>
@@ -14532,7 +14561,7 @@
       <c r="W531" s="9"/>
       <c r="X531" s="9"/>
     </row>
-    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="18"/>
@@ -14558,7 +14587,7 @@
       <c r="W532" s="9"/>
       <c r="X532" s="9"/>
     </row>
-    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="18"/>
@@ -14584,7 +14613,7 @@
       <c r="W533" s="9"/>
       <c r="X533" s="9"/>
     </row>
-    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="18"/>
@@ -14610,7 +14639,7 @@
       <c r="W534" s="9"/>
       <c r="X534" s="9"/>
     </row>
-    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="18"/>
@@ -14636,7 +14665,7 @@
       <c r="W535" s="9"/>
       <c r="X535" s="9"/>
     </row>
-    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="18"/>
@@ -14662,7 +14691,7 @@
       <c r="W536" s="9"/>
       <c r="X536" s="9"/>
     </row>
-    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="18"/>
@@ -14688,7 +14717,7 @@
       <c r="W537" s="9"/>
       <c r="X537" s="9"/>
     </row>
-    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="18"/>
@@ -14714,7 +14743,7 @@
       <c r="W538" s="9"/>
       <c r="X538" s="9"/>
     </row>
-    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="18"/>
@@ -14740,7 +14769,7 @@
       <c r="W539" s="9"/>
       <c r="X539" s="9"/>
     </row>
-    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="18"/>
@@ -14766,7 +14795,7 @@
       <c r="W540" s="9"/>
       <c r="X540" s="9"/>
     </row>
-    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="18"/>
@@ -14792,7 +14821,7 @@
       <c r="W541" s="9"/>
       <c r="X541" s="9"/>
     </row>
-    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="18"/>
@@ -14818,7 +14847,7 @@
       <c r="W542" s="9"/>
       <c r="X542" s="9"/>
     </row>
-    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="18"/>
@@ -14844,7 +14873,7 @@
       <c r="W543" s="9"/>
       <c r="X543" s="9"/>
     </row>
-    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="18"/>
@@ -14870,7 +14899,7 @@
       <c r="W544" s="9"/>
       <c r="X544" s="9"/>
     </row>
-    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="18"/>
@@ -14896,7 +14925,7 @@
       <c r="W545" s="9"/>
       <c r="X545" s="9"/>
     </row>
-    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="18"/>
@@ -14922,7 +14951,7 @@
       <c r="W546" s="9"/>
       <c r="X546" s="9"/>
     </row>
-    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="18"/>
@@ -14948,7 +14977,7 @@
       <c r="W547" s="9"/>
       <c r="X547" s="9"/>
     </row>
-    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="18"/>
@@ -14974,7 +15003,7 @@
       <c r="W548" s="9"/>
       <c r="X548" s="9"/>
     </row>
-    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="18"/>
@@ -15000,7 +15029,7 @@
       <c r="W549" s="9"/>
       <c r="X549" s="9"/>
     </row>
-    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="18"/>
@@ -15026,7 +15055,7 @@
       <c r="W550" s="9"/>
       <c r="X550" s="9"/>
     </row>
-    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="18"/>
@@ -15052,7 +15081,7 @@
       <c r="W551" s="9"/>
       <c r="X551" s="9"/>
     </row>
-    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="18"/>
@@ -15078,7 +15107,7 @@
       <c r="W552" s="9"/>
       <c r="X552" s="9"/>
     </row>
-    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="18"/>
@@ -15104,7 +15133,7 @@
       <c r="W553" s="9"/>
       <c r="X553" s="9"/>
     </row>
-    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="18"/>
@@ -15130,7 +15159,7 @@
       <c r="W554" s="9"/>
       <c r="X554" s="9"/>
     </row>
-    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="18"/>
@@ -15156,7 +15185,7 @@
       <c r="W555" s="9"/>
       <c r="X555" s="9"/>
     </row>
-    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="18"/>
@@ -15182,7 +15211,7 @@
       <c r="W556" s="9"/>
       <c r="X556" s="9"/>
     </row>
-    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="18"/>
@@ -15208,7 +15237,7 @@
       <c r="W557" s="9"/>
       <c r="X557" s="9"/>
     </row>
-    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="18"/>
@@ -15234,7 +15263,7 @@
       <c r="W558" s="9"/>
       <c r="X558" s="9"/>
     </row>
-    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="18"/>
@@ -15260,7 +15289,7 @@
       <c r="W559" s="9"/>
       <c r="X559" s="9"/>
     </row>
-    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="18"/>
@@ -15286,7 +15315,7 @@
       <c r="W560" s="9"/>
       <c r="X560" s="9"/>
     </row>
-    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="18"/>
@@ -15312,7 +15341,7 @@
       <c r="W561" s="9"/>
       <c r="X561" s="9"/>
     </row>
-    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="18"/>
@@ -15338,7 +15367,7 @@
       <c r="W562" s="9"/>
       <c r="X562" s="9"/>
     </row>
-    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="18"/>
@@ -15364,7 +15393,7 @@
       <c r="W563" s="9"/>
       <c r="X563" s="9"/>
     </row>
-    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="18"/>
@@ -15390,7 +15419,7 @@
       <c r="W564" s="9"/>
       <c r="X564" s="9"/>
     </row>
-    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="18"/>
@@ -15416,7 +15445,7 @@
       <c r="W565" s="9"/>
       <c r="X565" s="9"/>
     </row>
-    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="18"/>
@@ -15442,7 +15471,7 @@
       <c r="W566" s="9"/>
       <c r="X566" s="9"/>
     </row>
-    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="18"/>
@@ -15468,7 +15497,7 @@
       <c r="W567" s="9"/>
       <c r="X567" s="9"/>
     </row>
-    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="18"/>
@@ -15494,7 +15523,7 @@
       <c r="W568" s="9"/>
       <c r="X568" s="9"/>
     </row>
-    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="18"/>
@@ -15520,7 +15549,7 @@
       <c r="W569" s="9"/>
       <c r="X569" s="9"/>
     </row>
-    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="18"/>
@@ -15546,7 +15575,7 @@
       <c r="W570" s="9"/>
       <c r="X570" s="9"/>
     </row>
-    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="18"/>
@@ -15572,7 +15601,7 @@
       <c r="W571" s="9"/>
       <c r="X571" s="9"/>
     </row>
-    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="18"/>
@@ -15598,7 +15627,7 @@
       <c r="W572" s="9"/>
       <c r="X572" s="9"/>
     </row>
-    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="18"/>
@@ -15624,7 +15653,7 @@
       <c r="W573" s="9"/>
       <c r="X573" s="9"/>
     </row>
-    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="18"/>
@@ -15650,7 +15679,7 @@
       <c r="W574" s="9"/>
       <c r="X574" s="9"/>
     </row>
-    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="18"/>
@@ -15676,7 +15705,7 @@
       <c r="W575" s="9"/>
       <c r="X575" s="9"/>
     </row>
-    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="18"/>
@@ -15702,7 +15731,7 @@
       <c r="W576" s="9"/>
       <c r="X576" s="9"/>
     </row>
-    <row r="577" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="18"/>
@@ -15728,7 +15757,7 @@
       <c r="W577" s="9"/>
       <c r="X577" s="9"/>
     </row>
-    <row r="578" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="18"/>
@@ -15754,7 +15783,7 @@
       <c r="W578" s="9"/>
       <c r="X578" s="9"/>
     </row>
-    <row r="579" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="18"/>
@@ -15780,7 +15809,7 @@
       <c r="W579" s="9"/>
       <c r="X579" s="9"/>
     </row>
-    <row r="580" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="18"/>
@@ -15806,7 +15835,7 @@
       <c r="W580" s="9"/>
       <c r="X580" s="9"/>
     </row>
-    <row r="581" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="18"/>
@@ -15832,7 +15861,7 @@
       <c r="W581" s="9"/>
       <c r="X581" s="9"/>
     </row>
-    <row r="582" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="18"/>
@@ -15858,7 +15887,7 @@
       <c r="W582" s="9"/>
       <c r="X582" s="9"/>
     </row>
-    <row r="583" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="18"/>
@@ -15884,7 +15913,7 @@
       <c r="W583" s="9"/>
       <c r="X583" s="9"/>
     </row>
-    <row r="584" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="18"/>
@@ -15910,7 +15939,7 @@
       <c r="W584" s="9"/>
       <c r="X584" s="9"/>
     </row>
-    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="18"/>
@@ -15936,7 +15965,7 @@
       <c r="W585" s="9"/>
       <c r="X585" s="9"/>
     </row>
-    <row r="586" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="18"/>
@@ -15962,7 +15991,7 @@
       <c r="W586" s="9"/>
       <c r="X586" s="9"/>
     </row>
-    <row r="587" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="18"/>
@@ -15988,7 +16017,7 @@
       <c r="W587" s="9"/>
       <c r="X587" s="9"/>
     </row>
-    <row r="588" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="18"/>
@@ -16014,7 +16043,7 @@
       <c r="W588" s="9"/>
       <c r="X588" s="9"/>
     </row>
-    <row r="589" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="18"/>
@@ -16040,7 +16069,7 @@
       <c r="W589" s="9"/>
       <c r="X589" s="9"/>
     </row>
-    <row r="590" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="18"/>
@@ -16066,7 +16095,7 @@
       <c r="W590" s="9"/>
       <c r="X590" s="9"/>
     </row>
-    <row r="591" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="18"/>
@@ -16092,7 +16121,7 @@
       <c r="W591" s="9"/>
       <c r="X591" s="9"/>
     </row>
-    <row r="592" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="18"/>
@@ -16118,7 +16147,7 @@
       <c r="W592" s="9"/>
       <c r="X592" s="9"/>
     </row>
-    <row r="593" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="18"/>
@@ -16144,7 +16173,7 @@
       <c r="W593" s="9"/>
       <c r="X593" s="9"/>
     </row>
-    <row r="594" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="18"/>
@@ -16170,7 +16199,7 @@
       <c r="W594" s="9"/>
       <c r="X594" s="9"/>
     </row>
-    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="18"/>
@@ -16196,7 +16225,7 @@
       <c r="W595" s="9"/>
       <c r="X595" s="9"/>
     </row>
-    <row r="596" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="18"/>
@@ -16222,7 +16251,7 @@
       <c r="W596" s="9"/>
       <c r="X596" s="9"/>
     </row>
-    <row r="597" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="18"/>
@@ -16248,7 +16277,7 @@
       <c r="W597" s="9"/>
       <c r="X597" s="9"/>
     </row>
-    <row r="598" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="18"/>
@@ -16274,7 +16303,7 @@
       <c r="W598" s="9"/>
       <c r="X598" s="9"/>
     </row>
-    <row r="599" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="18"/>
@@ -16300,7 +16329,7 @@
       <c r="W599" s="9"/>
       <c r="X599" s="9"/>
     </row>
-    <row r="600" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="18"/>
@@ -16326,7 +16355,7 @@
       <c r="W600" s="9"/>
       <c r="X600" s="9"/>
     </row>
-    <row r="601" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="18"/>
@@ -16352,7 +16381,7 @@
       <c r="W601" s="9"/>
       <c r="X601" s="9"/>
     </row>
-    <row r="602" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="18"/>
@@ -16378,7 +16407,7 @@
       <c r="W602" s="9"/>
       <c r="X602" s="9"/>
     </row>
-    <row r="603" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="18"/>
@@ -16404,7 +16433,7 @@
       <c r="W603" s="9"/>
       <c r="X603" s="9"/>
     </row>
-    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="18"/>
@@ -16430,7 +16459,7 @@
       <c r="W604" s="9"/>
       <c r="X604" s="9"/>
     </row>
-    <row r="605" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="18"/>
@@ -16456,7 +16485,7 @@
       <c r="W605" s="9"/>
       <c r="X605" s="9"/>
     </row>
-    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="18"/>
@@ -16482,7 +16511,7 @@
       <c r="W606" s="9"/>
       <c r="X606" s="9"/>
     </row>
-    <row r="607" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="18"/>
@@ -16508,7 +16537,7 @@
       <c r="W607" s="9"/>
       <c r="X607" s="9"/>
     </row>
-    <row r="608" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="18"/>
@@ -16534,7 +16563,7 @@
       <c r="W608" s="9"/>
       <c r="X608" s="9"/>
     </row>
-    <row r="609" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="18"/>
@@ -16560,7 +16589,7 @@
       <c r="W609" s="9"/>
       <c r="X609" s="9"/>
     </row>
-    <row r="610" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="18"/>
@@ -16586,7 +16615,7 @@
       <c r="W610" s="9"/>
       <c r="X610" s="9"/>
     </row>
-    <row r="611" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="18"/>
@@ -16612,7 +16641,7 @@
       <c r="W611" s="9"/>
       <c r="X611" s="9"/>
     </row>
-    <row r="612" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="18"/>
@@ -16638,7 +16667,7 @@
       <c r="W612" s="9"/>
       <c r="X612" s="9"/>
     </row>
-    <row r="613" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="18"/>
@@ -16664,7 +16693,7 @@
       <c r="W613" s="9"/>
       <c r="X613" s="9"/>
     </row>
-    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="18"/>
@@ -16690,7 +16719,7 @@
       <c r="W614" s="9"/>
       <c r="X614" s="9"/>
     </row>
-    <row r="615" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="18"/>
@@ -16716,7 +16745,7 @@
       <c r="W615" s="9"/>
       <c r="X615" s="9"/>
     </row>
-    <row r="616" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="18"/>
@@ -16742,7 +16771,7 @@
       <c r="W616" s="9"/>
       <c r="X616" s="9"/>
     </row>
-    <row r="617" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="18"/>
@@ -16768,7 +16797,7 @@
       <c r="W617" s="9"/>
       <c r="X617" s="9"/>
     </row>
-    <row r="618" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="18"/>
@@ -16794,7 +16823,7 @@
       <c r="W618" s="9"/>
       <c r="X618" s="9"/>
     </row>
-    <row r="619" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="18"/>
@@ -16820,7 +16849,7 @@
       <c r="W619" s="9"/>
       <c r="X619" s="9"/>
     </row>
-    <row r="620" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="18"/>
@@ -16846,7 +16875,7 @@
       <c r="W620" s="9"/>
       <c r="X620" s="9"/>
     </row>
-    <row r="621" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="18"/>
@@ -16872,7 +16901,7 @@
       <c r="W621" s="9"/>
       <c r="X621" s="9"/>
     </row>
-    <row r="622" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="18"/>
@@ -16898,7 +16927,7 @@
       <c r="W622" s="9"/>
       <c r="X622" s="9"/>
     </row>
-    <row r="623" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="18"/>
@@ -16924,7 +16953,7 @@
       <c r="W623" s="9"/>
       <c r="X623" s="9"/>
     </row>
-    <row r="624" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="18"/>
@@ -16950,7 +16979,7 @@
       <c r="W624" s="9"/>
       <c r="X624" s="9"/>
     </row>
-    <row r="625" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="18"/>
@@ -16976,7 +17005,7 @@
       <c r="W625" s="9"/>
       <c r="X625" s="9"/>
     </row>
-    <row r="626" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="18"/>
@@ -17002,7 +17031,7 @@
       <c r="W626" s="9"/>
       <c r="X626" s="9"/>
     </row>
-    <row r="627" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="18"/>
@@ -17028,7 +17057,7 @@
       <c r="W627" s="9"/>
       <c r="X627" s="9"/>
     </row>
-    <row r="628" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="18"/>
@@ -17054,7 +17083,7 @@
       <c r="W628" s="9"/>
       <c r="X628" s="9"/>
     </row>
-    <row r="629" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="18"/>
@@ -17080,7 +17109,7 @@
       <c r="W629" s="9"/>
       <c r="X629" s="9"/>
     </row>
-    <row r="630" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="18"/>
@@ -17106,7 +17135,7 @@
       <c r="W630" s="9"/>
       <c r="X630" s="9"/>
     </row>
-    <row r="631" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="18"/>
@@ -17132,7 +17161,7 @@
       <c r="W631" s="9"/>
       <c r="X631" s="9"/>
     </row>
-    <row r="632" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="18"/>
@@ -17158,7 +17187,7 @@
       <c r="W632" s="9"/>
       <c r="X632" s="9"/>
     </row>
-    <row r="633" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="18"/>
@@ -17184,7 +17213,7 @@
       <c r="W633" s="9"/>
       <c r="X633" s="9"/>
     </row>
-    <row r="634" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="18"/>
@@ -17210,7 +17239,7 @@
       <c r="W634" s="9"/>
       <c r="X634" s="9"/>
     </row>
-    <row r="635" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="18"/>
@@ -17236,7 +17265,7 @@
       <c r="W635" s="9"/>
       <c r="X635" s="9"/>
     </row>
-    <row r="636" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="18"/>
@@ -17262,7 +17291,7 @@
       <c r="W636" s="9"/>
       <c r="X636" s="9"/>
     </row>
-    <row r="637" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="18"/>
@@ -17288,7 +17317,7 @@
       <c r="W637" s="9"/>
       <c r="X637" s="9"/>
     </row>
-    <row r="638" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="18"/>
@@ -17314,7 +17343,7 @@
       <c r="W638" s="9"/>
       <c r="X638" s="9"/>
     </row>
-    <row r="639" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="18"/>
@@ -17340,7 +17369,7 @@
       <c r="W639" s="9"/>
       <c r="X639" s="9"/>
     </row>
-    <row r="640" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="18"/>
@@ -17366,7 +17395,7 @@
       <c r="W640" s="9"/>
       <c r="X640" s="9"/>
     </row>
-    <row r="641" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="18"/>
@@ -17392,7 +17421,7 @@
       <c r="W641" s="9"/>
       <c r="X641" s="9"/>
     </row>
-    <row r="642" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="18"/>
@@ -17418,7 +17447,7 @@
       <c r="W642" s="9"/>
       <c r="X642" s="9"/>
     </row>
-    <row r="643" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="18"/>
@@ -17444,7 +17473,7 @@
       <c r="W643" s="9"/>
       <c r="X643" s="9"/>
     </row>
-    <row r="644" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="18"/>
@@ -17470,7 +17499,7 @@
       <c r="W644" s="9"/>
       <c r="X644" s="9"/>
     </row>
-    <row r="645" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="18"/>
@@ -17496,7 +17525,7 @@
       <c r="W645" s="9"/>
       <c r="X645" s="9"/>
     </row>
-    <row r="646" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="18"/>
@@ -17522,7 +17551,7 @@
       <c r="W646" s="9"/>
       <c r="X646" s="9"/>
     </row>
-    <row r="647" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="18"/>
@@ -17548,7 +17577,7 @@
       <c r="W647" s="9"/>
       <c r="X647" s="9"/>
     </row>
-    <row r="648" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="18"/>
@@ -17574,7 +17603,7 @@
       <c r="W648" s="9"/>
       <c r="X648" s="9"/>
     </row>
-    <row r="649" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="18"/>
@@ -17600,7 +17629,7 @@
       <c r="W649" s="9"/>
       <c r="X649" s="9"/>
     </row>
-    <row r="650" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="18"/>
@@ -17626,7 +17655,7 @@
       <c r="W650" s="9"/>
       <c r="X650" s="9"/>
     </row>
-    <row r="651" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="18"/>
@@ -17652,7 +17681,7 @@
       <c r="W651" s="9"/>
       <c r="X651" s="9"/>
     </row>
-    <row r="652" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="18"/>
@@ -17678,7 +17707,7 @@
       <c r="W652" s="9"/>
       <c r="X652" s="9"/>
     </row>
-    <row r="653" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="18"/>
@@ -17704,7 +17733,7 @@
       <c r="W653" s="9"/>
       <c r="X653" s="9"/>
     </row>
-    <row r="654" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="18"/>
@@ -17730,7 +17759,7 @@
       <c r="W654" s="9"/>
       <c r="X654" s="9"/>
     </row>
-    <row r="655" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="18"/>
@@ -17756,7 +17785,7 @@
       <c r="W655" s="9"/>
       <c r="X655" s="9"/>
     </row>
-    <row r="656" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="18"/>
@@ -17782,7 +17811,7 @@
       <c r="W656" s="9"/>
       <c r="X656" s="9"/>
     </row>
-    <row r="657" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="18"/>
@@ -17808,7 +17837,7 @@
       <c r="W657" s="9"/>
       <c r="X657" s="9"/>
     </row>
-    <row r="658" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="18"/>
@@ -17834,7 +17863,7 @@
       <c r="W658" s="9"/>
       <c r="X658" s="9"/>
     </row>
-    <row r="659" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="18"/>
@@ -17860,7 +17889,7 @@
       <c r="W659" s="9"/>
       <c r="X659" s="9"/>
     </row>
-    <row r="660" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="18"/>
@@ -17886,7 +17915,7 @@
       <c r="W660" s="9"/>
       <c r="X660" s="9"/>
     </row>
-    <row r="661" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="18"/>
@@ -17912,7 +17941,7 @@
       <c r="W661" s="9"/>
       <c r="X661" s="9"/>
     </row>
-    <row r="662" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="18"/>
@@ -17938,7 +17967,7 @@
       <c r="W662" s="9"/>
       <c r="X662" s="9"/>
     </row>
-    <row r="663" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="18"/>
@@ -17964,7 +17993,7 @@
       <c r="W663" s="9"/>
       <c r="X663" s="9"/>
     </row>
-    <row r="664" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="18"/>
@@ -17990,7 +18019,7 @@
       <c r="W664" s="9"/>
       <c r="X664" s="9"/>
     </row>
-    <row r="665" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="18"/>
@@ -18016,7 +18045,7 @@
       <c r="W665" s="9"/>
       <c r="X665" s="9"/>
     </row>
-    <row r="666" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="18"/>
@@ -18042,7 +18071,7 @@
       <c r="W666" s="9"/>
       <c r="X666" s="9"/>
     </row>
-    <row r="667" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="18"/>
@@ -18068,7 +18097,7 @@
       <c r="W667" s="9"/>
       <c r="X667" s="9"/>
     </row>
-    <row r="668" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="18"/>
@@ -18094,7 +18123,7 @@
       <c r="W668" s="9"/>
       <c r="X668" s="9"/>
     </row>
-    <row r="669" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="18"/>
@@ -18120,7 +18149,7 @@
       <c r="W669" s="9"/>
       <c r="X669" s="9"/>
     </row>
-    <row r="670" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="18"/>
@@ -18146,7 +18175,7 @@
       <c r="W670" s="9"/>
       <c r="X670" s="9"/>
     </row>
-    <row r="671" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="18"/>
@@ -18172,7 +18201,7 @@
       <c r="W671" s="9"/>
       <c r="X671" s="9"/>
     </row>
-    <row r="672" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="18"/>
@@ -18198,7 +18227,7 @@
       <c r="W672" s="9"/>
       <c r="X672" s="9"/>
     </row>
-    <row r="673" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="18"/>
@@ -18224,7 +18253,7 @@
       <c r="W673" s="9"/>
       <c r="X673" s="9"/>
     </row>
-    <row r="674" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="18"/>
@@ -18250,7 +18279,7 @@
       <c r="W674" s="9"/>
       <c r="X674" s="9"/>
     </row>
-    <row r="675" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="18"/>
@@ -18276,7 +18305,7 @@
       <c r="W675" s="9"/>
       <c r="X675" s="9"/>
     </row>
-    <row r="676" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="18"/>
@@ -18302,7 +18331,7 @@
       <c r="W676" s="9"/>
       <c r="X676" s="9"/>
     </row>
-    <row r="677" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="18"/>
@@ -18328,7 +18357,7 @@
       <c r="W677" s="9"/>
       <c r="X677" s="9"/>
     </row>
-    <row r="678" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="18"/>
@@ -18354,7 +18383,7 @@
       <c r="W678" s="9"/>
       <c r="X678" s="9"/>
     </row>
-    <row r="679" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="18"/>
@@ -18380,7 +18409,7 @@
       <c r="W679" s="9"/>
       <c r="X679" s="9"/>
     </row>
-    <row r="680" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="18"/>
@@ -18406,7 +18435,7 @@
       <c r="W680" s="9"/>
       <c r="X680" s="9"/>
     </row>
-    <row r="681" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="18"/>
@@ -18432,7 +18461,7 @@
       <c r="W681" s="9"/>
       <c r="X681" s="9"/>
     </row>
-    <row r="682" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="18"/>
@@ -18458,7 +18487,7 @@
       <c r="W682" s="9"/>
       <c r="X682" s="9"/>
     </row>
-    <row r="683" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="18"/>
@@ -18484,7 +18513,7 @@
       <c r="W683" s="9"/>
       <c r="X683" s="9"/>
     </row>
-    <row r="684" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="18"/>
@@ -18510,7 +18539,7 @@
       <c r="W684" s="9"/>
       <c r="X684" s="9"/>
     </row>
-    <row r="685" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="18"/>
@@ -18536,7 +18565,7 @@
       <c r="W685" s="9"/>
       <c r="X685" s="9"/>
     </row>
-    <row r="686" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="18"/>
@@ -18562,7 +18591,7 @@
       <c r="W686" s="9"/>
       <c r="X686" s="9"/>
     </row>
-    <row r="687" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="18"/>
@@ -18588,7 +18617,7 @@
       <c r="W687" s="9"/>
       <c r="X687" s="9"/>
     </row>
-    <row r="688" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="18"/>
@@ -18614,7 +18643,7 @@
       <c r="W688" s="9"/>
       <c r="X688" s="9"/>
     </row>
-    <row r="689" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="18"/>
@@ -18640,7 +18669,7 @@
       <c r="W689" s="9"/>
       <c r="X689" s="9"/>
     </row>
-    <row r="690" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="18"/>
@@ -18666,7 +18695,7 @@
       <c r="W690" s="9"/>
       <c r="X690" s="9"/>
     </row>
-    <row r="691" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="18"/>
@@ -18692,7 +18721,7 @@
       <c r="W691" s="9"/>
       <c r="X691" s="9"/>
     </row>
-    <row r="692" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="18"/>
@@ -18718,7 +18747,7 @@
       <c r="W692" s="9"/>
       <c r="X692" s="9"/>
     </row>
-    <row r="693" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="18"/>
@@ -18744,7 +18773,7 @@
       <c r="W693" s="9"/>
       <c r="X693" s="9"/>
     </row>
-    <row r="694" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="18"/>
@@ -18770,7 +18799,7 @@
       <c r="W694" s="9"/>
       <c r="X694" s="9"/>
     </row>
-    <row r="695" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="18"/>
@@ -18796,7 +18825,7 @@
       <c r="W695" s="9"/>
       <c r="X695" s="9"/>
     </row>
-    <row r="696" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="18"/>
@@ -18822,7 +18851,7 @@
       <c r="W696" s="9"/>
       <c r="X696" s="9"/>
     </row>
-    <row r="697" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="18"/>
@@ -18848,7 +18877,7 @@
       <c r="W697" s="9"/>
       <c r="X697" s="9"/>
     </row>
-    <row r="698" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="18"/>
@@ -18874,7 +18903,7 @@
       <c r="W698" s="9"/>
       <c r="X698" s="9"/>
     </row>
-    <row r="699" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="18"/>
@@ -18900,7 +18929,7 @@
       <c r="W699" s="9"/>
       <c r="X699" s="9"/>
     </row>
-    <row r="700" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="18"/>
@@ -18926,7 +18955,7 @@
       <c r="W700" s="9"/>
       <c r="X700" s="9"/>
     </row>
-    <row r="701" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="18"/>
@@ -18952,7 +18981,7 @@
       <c r="W701" s="9"/>
       <c r="X701" s="9"/>
     </row>
-    <row r="702" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="18"/>
@@ -18978,7 +19007,7 @@
       <c r="W702" s="9"/>
       <c r="X702" s="9"/>
     </row>
-    <row r="703" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="18"/>
@@ -19004,7 +19033,7 @@
       <c r="W703" s="9"/>
       <c r="X703" s="9"/>
     </row>
-    <row r="704" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="18"/>
@@ -19030,7 +19059,7 @@
       <c r="W704" s="9"/>
       <c r="X704" s="9"/>
     </row>
-    <row r="705" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="18"/>
@@ -19056,7 +19085,7 @@
       <c r="W705" s="9"/>
       <c r="X705" s="9"/>
     </row>
-    <row r="706" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="18"/>
@@ -19082,7 +19111,7 @@
       <c r="W706" s="9"/>
       <c r="X706" s="9"/>
     </row>
-    <row r="707" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="18"/>
@@ -19108,7 +19137,7 @@
       <c r="W707" s="9"/>
       <c r="X707" s="9"/>
     </row>
-    <row r="708" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="18"/>
@@ -19134,7 +19163,7 @@
       <c r="W708" s="9"/>
       <c r="X708" s="9"/>
     </row>
-    <row r="709" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="18"/>
@@ -19160,7 +19189,7 @@
       <c r="W709" s="9"/>
       <c r="X709" s="9"/>
     </row>
-    <row r="710" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="18"/>
@@ -19186,7 +19215,7 @@
       <c r="W710" s="9"/>
       <c r="X710" s="9"/>
     </row>
-    <row r="711" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="18"/>
@@ -19212,7 +19241,7 @@
       <c r="W711" s="9"/>
       <c r="X711" s="9"/>
     </row>
-    <row r="712" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="18"/>
@@ -19238,7 +19267,7 @@
       <c r="W712" s="9"/>
       <c r="X712" s="9"/>
     </row>
-    <row r="713" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="18"/>
@@ -19264,7 +19293,7 @@
       <c r="W713" s="9"/>
       <c r="X713" s="9"/>
     </row>
-    <row r="714" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="18"/>
@@ -19290,7 +19319,7 @@
       <c r="W714" s="9"/>
       <c r="X714" s="9"/>
     </row>
-    <row r="715" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="18"/>
@@ -19316,7 +19345,7 @@
       <c r="W715" s="9"/>
       <c r="X715" s="9"/>
     </row>
-    <row r="716" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="18"/>
@@ -19342,7 +19371,7 @@
       <c r="W716" s="9"/>
       <c r="X716" s="9"/>
     </row>
-    <row r="717" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="18"/>
@@ -19368,7 +19397,7 @@
       <c r="W717" s="9"/>
       <c r="X717" s="9"/>
     </row>
-    <row r="718" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="18"/>
@@ -19394,7 +19423,7 @@
       <c r="W718" s="9"/>
       <c r="X718" s="9"/>
     </row>
-    <row r="719" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="18"/>
@@ -19420,7 +19449,7 @@
       <c r="W719" s="9"/>
       <c r="X719" s="9"/>
     </row>
-    <row r="720" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="18"/>
@@ -19446,7 +19475,7 @@
       <c r="W720" s="9"/>
       <c r="X720" s="9"/>
     </row>
-    <row r="721" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="18"/>
@@ -19472,7 +19501,7 @@
       <c r="W721" s="9"/>
       <c r="X721" s="9"/>
     </row>
-    <row r="722" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="18"/>
@@ -19498,7 +19527,7 @@
       <c r="W722" s="9"/>
       <c r="X722" s="9"/>
     </row>
-    <row r="723" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="18"/>
@@ -19524,7 +19553,7 @@
       <c r="W723" s="9"/>
       <c r="X723" s="9"/>
     </row>
-    <row r="724" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="18"/>
@@ -19550,7 +19579,7 @@
       <c r="W724" s="9"/>
       <c r="X724" s="9"/>
     </row>
-    <row r="725" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="18"/>
@@ -19576,7 +19605,7 @@
       <c r="W725" s="9"/>
       <c r="X725" s="9"/>
     </row>
-    <row r="726" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="18"/>
@@ -19602,7 +19631,7 @@
       <c r="W726" s="9"/>
       <c r="X726" s="9"/>
     </row>
-    <row r="727" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="18"/>
@@ -19628,7 +19657,7 @@
       <c r="W727" s="9"/>
       <c r="X727" s="9"/>
     </row>
-    <row r="728" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="18"/>
@@ -19654,7 +19683,7 @@
       <c r="W728" s="9"/>
       <c r="X728" s="9"/>
     </row>
-    <row r="729" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="18"/>
@@ -19680,7 +19709,7 @@
       <c r="W729" s="9"/>
       <c r="X729" s="9"/>
     </row>
-    <row r="730" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="18"/>
@@ -19706,7 +19735,7 @@
       <c r="W730" s="9"/>
       <c r="X730" s="9"/>
     </row>
-    <row r="731" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="18"/>
@@ -19732,7 +19761,7 @@
       <c r="W731" s="9"/>
       <c r="X731" s="9"/>
     </row>
-    <row r="732" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="18"/>
@@ -19758,7 +19787,7 @@
       <c r="W732" s="9"/>
       <c r="X732" s="9"/>
     </row>
-    <row r="733" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="18"/>
@@ -19784,7 +19813,7 @@
       <c r="W733" s="9"/>
       <c r="X733" s="9"/>
     </row>
-    <row r="734" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="18"/>
@@ -19810,7 +19839,7 @@
       <c r="W734" s="9"/>
       <c r="X734" s="9"/>
     </row>
-    <row r="735" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="18"/>
@@ -19836,7 +19865,7 @@
       <c r="W735" s="9"/>
       <c r="X735" s="9"/>
     </row>
-    <row r="736" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="18"/>
@@ -19862,7 +19891,7 @@
       <c r="W736" s="9"/>
       <c r="X736" s="9"/>
     </row>
-    <row r="737" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="18"/>
@@ -19888,7 +19917,7 @@
       <c r="W737" s="9"/>
       <c r="X737" s="9"/>
     </row>
-    <row r="738" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="18"/>
@@ -19914,7 +19943,7 @@
       <c r="W738" s="9"/>
       <c r="X738" s="9"/>
     </row>
-    <row r="739" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="18"/>
@@ -19940,7 +19969,7 @@
       <c r="W739" s="9"/>
       <c r="X739" s="9"/>
     </row>
-    <row r="740" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="18"/>
@@ -19966,7 +19995,7 @@
       <c r="W740" s="9"/>
       <c r="X740" s="9"/>
     </row>
-    <row r="741" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="18"/>
@@ -19992,7 +20021,7 @@
       <c r="W741" s="9"/>
       <c r="X741" s="9"/>
     </row>
-    <row r="742" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="18"/>
@@ -20018,7 +20047,7 @@
       <c r="W742" s="9"/>
       <c r="X742" s="9"/>
     </row>
-    <row r="743" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="18"/>
@@ -20044,7 +20073,7 @@
       <c r="W743" s="9"/>
       <c r="X743" s="9"/>
     </row>
-    <row r="744" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="18"/>
@@ -20070,7 +20099,7 @@
       <c r="W744" s="9"/>
       <c r="X744" s="9"/>
     </row>
-    <row r="745" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="18"/>
@@ -20096,7 +20125,7 @@
       <c r="W745" s="9"/>
       <c r="X745" s="9"/>
     </row>
-    <row r="746" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="18"/>
@@ -20122,7 +20151,7 @@
       <c r="W746" s="9"/>
       <c r="X746" s="9"/>
     </row>
-    <row r="747" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="18"/>
@@ -20148,7 +20177,7 @@
       <c r="W747" s="9"/>
       <c r="X747" s="9"/>
     </row>
-    <row r="748" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="18"/>
@@ -20174,7 +20203,7 @@
       <c r="W748" s="9"/>
       <c r="X748" s="9"/>
     </row>
-    <row r="749" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="18"/>
@@ -20200,7 +20229,7 @@
       <c r="W749" s="9"/>
       <c r="X749" s="9"/>
     </row>
-    <row r="750" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="18"/>
@@ -20226,7 +20255,7 @@
       <c r="W750" s="9"/>
       <c r="X750" s="9"/>
     </row>
-    <row r="751" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="18"/>
@@ -20252,7 +20281,7 @@
       <c r="W751" s="9"/>
       <c r="X751" s="9"/>
     </row>
-    <row r="752" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="18"/>
@@ -20278,7 +20307,7 @@
       <c r="W752" s="9"/>
       <c r="X752" s="9"/>
     </row>
-    <row r="753" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="18"/>
@@ -20304,7 +20333,7 @@
       <c r="W753" s="9"/>
       <c r="X753" s="9"/>
     </row>
-    <row r="754" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="18"/>
@@ -20330,7 +20359,7 @@
       <c r="W754" s="9"/>
       <c r="X754" s="9"/>
     </row>
-    <row r="755" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="18"/>
@@ -20356,7 +20385,7 @@
       <c r="W755" s="9"/>
       <c r="X755" s="9"/>
     </row>
-    <row r="756" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="18"/>
@@ -20382,7 +20411,7 @@
       <c r="W756" s="9"/>
       <c r="X756" s="9"/>
     </row>
-    <row r="757" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="18"/>
@@ -20408,7 +20437,7 @@
       <c r="W757" s="9"/>
       <c r="X757" s="9"/>
     </row>
-    <row r="758" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="18"/>
@@ -20434,7 +20463,7 @@
       <c r="W758" s="9"/>
       <c r="X758" s="9"/>
     </row>
-    <row r="759" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="18"/>
@@ -20460,7 +20489,7 @@
       <c r="W759" s="9"/>
       <c r="X759" s="9"/>
     </row>
-    <row r="760" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="18"/>
@@ -20486,7 +20515,7 @@
       <c r="W760" s="9"/>
       <c r="X760" s="9"/>
     </row>
-    <row r="761" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="18"/>
@@ -20512,7 +20541,7 @@
       <c r="W761" s="9"/>
       <c r="X761" s="9"/>
     </row>
-    <row r="762" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="18"/>
@@ -20538,7 +20567,7 @@
       <c r="W762" s="9"/>
       <c r="X762" s="9"/>
     </row>
-    <row r="763" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="18"/>
@@ -20564,7 +20593,7 @@
       <c r="W763" s="9"/>
       <c r="X763" s="9"/>
     </row>
-    <row r="764" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="18"/>
@@ -20590,7 +20619,7 @@
       <c r="W764" s="9"/>
       <c r="X764" s="9"/>
     </row>
-    <row r="765" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="18"/>
@@ -20616,7 +20645,7 @@
       <c r="W765" s="9"/>
       <c r="X765" s="9"/>
     </row>
-    <row r="766" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="18"/>
@@ -20642,7 +20671,7 @@
       <c r="W766" s="9"/>
       <c r="X766" s="9"/>
     </row>
-    <row r="767" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="18"/>
@@ -20668,7 +20697,7 @@
       <c r="W767" s="9"/>
       <c r="X767" s="9"/>
     </row>
-    <row r="768" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="18"/>
@@ -20694,7 +20723,7 @@
       <c r="W768" s="9"/>
       <c r="X768" s="9"/>
     </row>
-    <row r="769" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="18"/>
@@ -20720,7 +20749,7 @@
       <c r="W769" s="9"/>
       <c r="X769" s="9"/>
     </row>
-    <row r="770" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="18"/>
@@ -20746,7 +20775,7 @@
       <c r="W770" s="9"/>
       <c r="X770" s="9"/>
     </row>
-    <row r="771" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="18"/>
@@ -20772,7 +20801,7 @@
       <c r="W771" s="9"/>
       <c r="X771" s="9"/>
     </row>
-    <row r="772" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="18"/>
@@ -20798,7 +20827,7 @@
       <c r="W772" s="9"/>
       <c r="X772" s="9"/>
     </row>
-    <row r="773" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="18"/>
@@ -20824,7 +20853,7 @@
       <c r="W773" s="9"/>
       <c r="X773" s="9"/>
     </row>
-    <row r="774" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="18"/>
@@ -20850,7 +20879,7 @@
       <c r="W774" s="9"/>
       <c r="X774" s="9"/>
     </row>
-    <row r="775" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="18"/>
@@ -20876,7 +20905,7 @@
       <c r="W775" s="9"/>
       <c r="X775" s="9"/>
     </row>
-    <row r="776" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="18"/>
@@ -20902,7 +20931,7 @@
       <c r="W776" s="9"/>
       <c r="X776" s="9"/>
     </row>
-    <row r="777" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="18"/>
@@ -20928,7 +20957,7 @@
       <c r="W777" s="9"/>
       <c r="X777" s="9"/>
     </row>
-    <row r="778" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="18"/>
@@ -20954,7 +20983,7 @@
       <c r="W778" s="9"/>
       <c r="X778" s="9"/>
     </row>
-    <row r="779" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="18"/>
@@ -20980,7 +21009,7 @@
       <c r="W779" s="9"/>
       <c r="X779" s="9"/>
     </row>
-    <row r="780" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="18"/>
@@ -21006,7 +21035,7 @@
       <c r="W780" s="9"/>
       <c r="X780" s="9"/>
     </row>
-    <row r="781" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="18"/>
@@ -21032,7 +21061,7 @@
       <c r="W781" s="9"/>
       <c r="X781" s="9"/>
     </row>
-    <row r="782" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="18"/>
@@ -21058,7 +21087,7 @@
       <c r="W782" s="9"/>
       <c r="X782" s="9"/>
     </row>
-    <row r="783" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="18"/>
@@ -21084,7 +21113,7 @@
       <c r="W783" s="9"/>
       <c r="X783" s="9"/>
     </row>
-    <row r="784" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="18"/>
@@ -21110,7 +21139,7 @@
       <c r="W784" s="9"/>
       <c r="X784" s="9"/>
     </row>
-    <row r="785" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="18"/>
@@ -21136,7 +21165,7 @@
       <c r="W785" s="9"/>
       <c r="X785" s="9"/>
     </row>
-    <row r="786" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="18"/>
@@ -21162,7 +21191,7 @@
       <c r="W786" s="9"/>
       <c r="X786" s="9"/>
     </row>
-    <row r="787" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="18"/>
@@ -21188,7 +21217,7 @@
       <c r="W787" s="9"/>
       <c r="X787" s="9"/>
     </row>
-    <row r="788" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="18"/>
@@ -21214,7 +21243,7 @@
       <c r="W788" s="9"/>
       <c r="X788" s="9"/>
     </row>
-    <row r="789" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="18"/>
@@ -21240,7 +21269,7 @@
       <c r="W789" s="9"/>
       <c r="X789" s="9"/>
     </row>
-    <row r="790" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="18"/>
@@ -21266,7 +21295,7 @@
       <c r="W790" s="9"/>
       <c r="X790" s="9"/>
     </row>
-    <row r="791" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="18"/>
@@ -21292,7 +21321,7 @@
       <c r="W791" s="9"/>
       <c r="X791" s="9"/>
     </row>
-    <row r="792" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="18"/>
@@ -21318,7 +21347,7 @@
       <c r="W792" s="9"/>
       <c r="X792" s="9"/>
     </row>
-    <row r="793" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="18"/>
@@ -21344,7 +21373,7 @@
       <c r="W793" s="9"/>
       <c r="X793" s="9"/>
     </row>
-    <row r="794" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="18"/>
@@ -21370,7 +21399,7 @@
       <c r="W794" s="9"/>
       <c r="X794" s="9"/>
     </row>
-    <row r="795" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="18"/>
@@ -21396,7 +21425,7 @@
       <c r="W795" s="9"/>
       <c r="X795" s="9"/>
     </row>
-    <row r="796" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="18"/>
@@ -21422,7 +21451,7 @@
       <c r="W796" s="9"/>
       <c r="X796" s="9"/>
     </row>
-    <row r="797" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="18"/>
@@ -21448,7 +21477,7 @@
       <c r="W797" s="9"/>
       <c r="X797" s="9"/>
     </row>
-    <row r="798" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="18"/>
@@ -21474,7 +21503,7 @@
       <c r="W798" s="9"/>
       <c r="X798" s="9"/>
     </row>
-    <row r="799" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="18"/>
@@ -21500,7 +21529,7 @@
       <c r="W799" s="9"/>
       <c r="X799" s="9"/>
     </row>
-    <row r="800" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="18"/>
@@ -21526,7 +21555,7 @@
       <c r="W800" s="9"/>
       <c r="X800" s="9"/>
     </row>
-    <row r="801" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="18"/>
@@ -21552,7 +21581,7 @@
       <c r="W801" s="9"/>
       <c r="X801" s="9"/>
     </row>
-    <row r="802" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="18"/>
@@ -21578,7 +21607,7 @@
       <c r="W802" s="9"/>
       <c r="X802" s="9"/>
     </row>
-    <row r="803" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="18"/>
@@ -21604,7 +21633,7 @@
       <c r="W803" s="9"/>
       <c r="X803" s="9"/>
     </row>
-    <row r="804" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="18"/>
@@ -21630,7 +21659,7 @@
       <c r="W804" s="9"/>
       <c r="X804" s="9"/>
     </row>
-    <row r="805" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="18"/>
@@ -21656,7 +21685,7 @@
       <c r="W805" s="9"/>
       <c r="X805" s="9"/>
     </row>
-    <row r="806" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="18"/>
@@ -21682,7 +21711,7 @@
       <c r="W806" s="9"/>
       <c r="X806" s="9"/>
     </row>
-    <row r="807" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="18"/>
@@ -21708,7 +21737,7 @@
       <c r="W807" s="9"/>
       <c r="X807" s="9"/>
     </row>
-    <row r="808" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="18"/>
@@ -21734,7 +21763,7 @@
       <c r="W808" s="9"/>
       <c r="X808" s="9"/>
     </row>
-    <row r="809" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="18"/>
@@ -21760,7 +21789,7 @@
       <c r="W809" s="9"/>
       <c r="X809" s="9"/>
     </row>
-    <row r="810" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="18"/>
@@ -21786,7 +21815,7 @@
       <c r="W810" s="9"/>
       <c r="X810" s="9"/>
     </row>
-    <row r="811" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="18"/>
@@ -21812,7 +21841,7 @@
       <c r="W811" s="9"/>
       <c r="X811" s="9"/>
     </row>
-    <row r="812" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="18"/>
@@ -21838,7 +21867,7 @@
       <c r="W812" s="9"/>
       <c r="X812" s="9"/>
     </row>
-    <row r="813" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="18"/>
@@ -21864,7 +21893,7 @@
       <c r="W813" s="9"/>
       <c r="X813" s="9"/>
     </row>
-    <row r="814" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="18"/>
@@ -21890,7 +21919,7 @@
       <c r="W814" s="9"/>
       <c r="X814" s="9"/>
     </row>
-    <row r="815" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="18"/>
@@ -21916,7 +21945,7 @@
       <c r="W815" s="9"/>
       <c r="X815" s="9"/>
     </row>
-    <row r="816" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="18"/>
@@ -21942,7 +21971,7 @@
       <c r="W816" s="9"/>
       <c r="X816" s="9"/>
     </row>
-    <row r="817" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="18"/>
@@ -21968,7 +21997,7 @@
       <c r="W817" s="9"/>
       <c r="X817" s="9"/>
     </row>
-    <row r="818" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="18"/>
@@ -21994,7 +22023,7 @@
       <c r="W818" s="9"/>
       <c r="X818" s="9"/>
     </row>
-    <row r="819" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="18"/>
@@ -22020,7 +22049,7 @@
       <c r="W819" s="9"/>
       <c r="X819" s="9"/>
     </row>
-    <row r="820" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="18"/>
@@ -22046,7 +22075,7 @@
       <c r="W820" s="9"/>
       <c r="X820" s="9"/>
     </row>
-    <row r="821" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="18"/>
@@ -22072,7 +22101,7 @@
       <c r="W821" s="9"/>
       <c r="X821" s="9"/>
     </row>
-    <row r="822" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="18"/>
@@ -22098,7 +22127,7 @@
       <c r="W822" s="9"/>
       <c r="X822" s="9"/>
     </row>
-    <row r="823" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="18"/>
@@ -22124,7 +22153,7 @@
       <c r="W823" s="9"/>
       <c r="X823" s="9"/>
     </row>
-    <row r="824" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="18"/>
@@ -22150,7 +22179,7 @@
       <c r="W824" s="9"/>
       <c r="X824" s="9"/>
     </row>
-    <row r="825" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="18"/>
@@ -22176,7 +22205,7 @@
       <c r="W825" s="9"/>
       <c r="X825" s="9"/>
     </row>
-    <row r="826" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="18"/>
@@ -22202,7 +22231,7 @@
       <c r="W826" s="9"/>
       <c r="X826" s="9"/>
     </row>
-    <row r="827" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="18"/>
@@ -22228,7 +22257,7 @@
       <c r="W827" s="9"/>
       <c r="X827" s="9"/>
     </row>
-    <row r="828" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="18"/>
@@ -22254,7 +22283,7 @@
       <c r="W828" s="9"/>
       <c r="X828" s="9"/>
     </row>
-    <row r="829" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="18"/>
@@ -22280,7 +22309,7 @@
       <c r="W829" s="9"/>
       <c r="X829" s="9"/>
     </row>
-    <row r="830" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="18"/>
@@ -22306,7 +22335,7 @@
       <c r="W830" s="9"/>
       <c r="X830" s="9"/>
     </row>
-    <row r="831" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="18"/>
@@ -22332,7 +22361,7 @@
       <c r="W831" s="9"/>
       <c r="X831" s="9"/>
     </row>
-    <row r="832" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="18"/>
@@ -22358,7 +22387,7 @@
       <c r="W832" s="9"/>
       <c r="X832" s="9"/>
     </row>
-    <row r="833" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="18"/>
@@ -22384,7 +22413,7 @@
       <c r="W833" s="9"/>
       <c r="X833" s="9"/>
     </row>
-    <row r="834" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="18"/>
@@ -22410,7 +22439,7 @@
       <c r="W834" s="9"/>
       <c r="X834" s="9"/>
     </row>
-    <row r="835" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="18"/>
@@ -22436,7 +22465,7 @@
       <c r="W835" s="9"/>
       <c r="X835" s="9"/>
     </row>
-    <row r="836" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="18"/>
@@ -22462,7 +22491,7 @@
       <c r="W836" s="9"/>
       <c r="X836" s="9"/>
     </row>
-    <row r="837" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="18"/>
@@ -22488,7 +22517,7 @@
       <c r="W837" s="9"/>
       <c r="X837" s="9"/>
     </row>
-    <row r="838" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="18"/>
@@ -22514,7 +22543,7 @@
       <c r="W838" s="9"/>
       <c r="X838" s="9"/>
     </row>
-    <row r="839" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="18"/>
@@ -22540,7 +22569,7 @@
       <c r="W839" s="9"/>
       <c r="X839" s="9"/>
     </row>
-    <row r="840" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="18"/>
@@ -22566,7 +22595,7 @@
       <c r="W840" s="9"/>
       <c r="X840" s="9"/>
     </row>
-    <row r="841" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="18"/>
@@ -22592,7 +22621,7 @@
       <c r="W841" s="9"/>
       <c r="X841" s="9"/>
     </row>
-    <row r="842" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="18"/>
@@ -22618,7 +22647,7 @@
       <c r="W842" s="9"/>
       <c r="X842" s="9"/>
     </row>
-    <row r="843" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="18"/>
@@ -22644,7 +22673,7 @@
       <c r="W843" s="9"/>
       <c r="X843" s="9"/>
     </row>
-    <row r="844" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="18"/>
@@ -22670,7 +22699,7 @@
       <c r="W844" s="9"/>
       <c r="X844" s="9"/>
     </row>
-    <row r="845" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="18"/>
@@ -22696,7 +22725,7 @@
       <c r="W845" s="9"/>
       <c r="X845" s="9"/>
     </row>
-    <row r="846" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="18"/>
@@ -22722,7 +22751,7 @@
       <c r="W846" s="9"/>
       <c r="X846" s="9"/>
     </row>
-    <row r="847" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="18"/>
@@ -22748,7 +22777,7 @@
       <c r="W847" s="9"/>
       <c r="X847" s="9"/>
     </row>
-    <row r="848" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="18"/>
@@ -22774,7 +22803,7 @@
       <c r="W848" s="9"/>
       <c r="X848" s="9"/>
     </row>
-    <row r="849" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="18"/>
@@ -22800,7 +22829,7 @@
       <c r="W849" s="9"/>
       <c r="X849" s="9"/>
     </row>
-    <row r="850" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="18"/>
@@ -22826,7 +22855,7 @@
       <c r="W850" s="9"/>
       <c r="X850" s="9"/>
     </row>
-    <row r="851" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="18"/>
@@ -22852,7 +22881,7 @@
       <c r="W851" s="9"/>
       <c r="X851" s="9"/>
     </row>
-    <row r="852" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="18"/>
@@ -22878,7 +22907,7 @@
       <c r="W852" s="9"/>
       <c r="X852" s="9"/>
     </row>
-    <row r="853" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="18"/>
@@ -22904,7 +22933,7 @@
       <c r="W853" s="9"/>
       <c r="X853" s="9"/>
     </row>
-    <row r="854" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="18"/>
@@ -22930,7 +22959,7 @@
       <c r="W854" s="9"/>
       <c r="X854" s="9"/>
     </row>
-    <row r="855" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="18"/>
@@ -22956,7 +22985,7 @@
       <c r="W855" s="9"/>
       <c r="X855" s="9"/>
     </row>
-    <row r="856" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="18"/>
@@ -22982,7 +23011,7 @@
       <c r="W856" s="9"/>
       <c r="X856" s="9"/>
     </row>
-    <row r="857" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="18"/>
@@ -23008,7 +23037,7 @@
       <c r="W857" s="9"/>
       <c r="X857" s="9"/>
     </row>
-    <row r="858" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="18"/>
@@ -23034,7 +23063,7 @@
       <c r="W858" s="9"/>
       <c r="X858" s="9"/>
     </row>
-    <row r="859" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="18"/>
@@ -23060,7 +23089,7 @@
       <c r="W859" s="9"/>
       <c r="X859" s="9"/>
     </row>
-    <row r="860" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="18"/>
@@ -23086,7 +23115,7 @@
       <c r="W860" s="9"/>
       <c r="X860" s="9"/>
     </row>
-    <row r="861" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="18"/>
@@ -23112,7 +23141,7 @@
       <c r="W861" s="9"/>
       <c r="X861" s="9"/>
     </row>
-    <row r="862" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="18"/>
@@ -23138,7 +23167,7 @@
       <c r="W862" s="9"/>
       <c r="X862" s="9"/>
     </row>
-    <row r="863" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="18"/>
@@ -23164,7 +23193,7 @@
       <c r="W863" s="9"/>
       <c r="X863" s="9"/>
     </row>
-    <row r="864" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="18"/>
@@ -23190,7 +23219,7 @@
       <c r="W864" s="9"/>
       <c r="X864" s="9"/>
     </row>
-    <row r="865" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="18"/>
@@ -23216,7 +23245,7 @@
       <c r="W865" s="9"/>
       <c r="X865" s="9"/>
     </row>
-    <row r="866" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="18"/>
@@ -23242,7 +23271,7 @@
       <c r="W866" s="9"/>
       <c r="X866" s="9"/>
     </row>
-    <row r="867" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="18"/>
@@ -23268,7 +23297,7 @@
       <c r="W867" s="9"/>
       <c r="X867" s="9"/>
     </row>
-    <row r="868" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="18"/>
@@ -23294,7 +23323,7 @@
       <c r="W868" s="9"/>
       <c r="X868" s="9"/>
     </row>
-    <row r="869" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="18"/>
@@ -23320,7 +23349,7 @@
       <c r="W869" s="9"/>
       <c r="X869" s="9"/>
     </row>
-    <row r="870" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="18"/>
@@ -23346,7 +23375,7 @@
       <c r="W870" s="9"/>
       <c r="X870" s="9"/>
     </row>
-    <row r="871" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="18"/>
@@ -23372,7 +23401,7 @@
       <c r="W871" s="9"/>
       <c r="X871" s="9"/>
     </row>
-    <row r="872" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="18"/>
@@ -23398,7 +23427,7 @@
       <c r="W872" s="9"/>
       <c r="X872" s="9"/>
     </row>
-    <row r="873" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="18"/>
@@ -23424,7 +23453,7 @@
       <c r="W873" s="9"/>
       <c r="X873" s="9"/>
     </row>
-    <row r="874" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="18"/>
@@ -23450,7 +23479,7 @@
       <c r="W874" s="9"/>
       <c r="X874" s="9"/>
     </row>
-    <row r="875" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="18"/>
@@ -23476,7 +23505,7 @@
       <c r="W875" s="9"/>
       <c r="X875" s="9"/>
     </row>
-    <row r="876" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="18"/>
@@ -23502,7 +23531,7 @@
       <c r="W876" s="9"/>
       <c r="X876" s="9"/>
     </row>
-    <row r="877" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="18"/>
@@ -23528,7 +23557,7 @@
       <c r="W877" s="9"/>
       <c r="X877" s="9"/>
     </row>
-    <row r="878" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="18"/>
@@ -23554,7 +23583,7 @@
       <c r="W878" s="9"/>
       <c r="X878" s="9"/>
     </row>
-    <row r="879" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="18"/>
@@ -23580,7 +23609,7 @@
       <c r="W879" s="9"/>
       <c r="X879" s="9"/>
     </row>
-    <row r="880" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="18"/>
@@ -23606,7 +23635,7 @@
       <c r="W880" s="9"/>
       <c r="X880" s="9"/>
     </row>
-    <row r="881" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="18"/>
@@ -23632,7 +23661,7 @@
       <c r="W881" s="9"/>
       <c r="X881" s="9"/>
     </row>
-    <row r="882" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="18"/>
@@ -23658,7 +23687,7 @@
       <c r="W882" s="9"/>
       <c r="X882" s="9"/>
     </row>
-    <row r="883" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="18"/>
@@ -23684,7 +23713,7 @@
       <c r="W883" s="9"/>
       <c r="X883" s="9"/>
     </row>
-    <row r="884" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="18"/>
@@ -23710,7 +23739,7 @@
       <c r="W884" s="9"/>
       <c r="X884" s="9"/>
     </row>
-    <row r="885" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="18"/>
@@ -23736,7 +23765,7 @@
       <c r="W885" s="9"/>
       <c r="X885" s="9"/>
     </row>
-    <row r="886" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="18"/>
@@ -23762,7 +23791,7 @@
       <c r="W886" s="9"/>
       <c r="X886" s="9"/>
     </row>
-    <row r="887" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="18"/>
@@ -23788,7 +23817,7 @@
       <c r="W887" s="9"/>
       <c r="X887" s="9"/>
     </row>
-    <row r="888" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="18"/>
@@ -23814,7 +23843,7 @@
       <c r="W888" s="9"/>
       <c r="X888" s="9"/>
     </row>
-    <row r="889" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="18"/>
@@ -23840,7 +23869,7 @@
       <c r="W889" s="9"/>
       <c r="X889" s="9"/>
     </row>
-    <row r="890" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="18"/>
@@ -23866,7 +23895,7 @@
       <c r="W890" s="9"/>
       <c r="X890" s="9"/>
     </row>
-    <row r="891" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="18"/>
@@ -23892,7 +23921,7 @@
       <c r="W891" s="9"/>
       <c r="X891" s="9"/>
     </row>
-    <row r="892" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="18"/>
@@ -23918,7 +23947,7 @@
       <c r="W892" s="9"/>
       <c r="X892" s="9"/>
     </row>
-    <row r="893" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="18"/>
@@ -23944,7 +23973,7 @@
       <c r="W893" s="9"/>
       <c r="X893" s="9"/>
     </row>
-    <row r="894" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="18"/>
@@ -23970,7 +23999,7 @@
       <c r="W894" s="9"/>
       <c r="X894" s="9"/>
     </row>
-    <row r="895" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="18"/>
@@ -23996,7 +24025,7 @@
       <c r="W895" s="9"/>
       <c r="X895" s="9"/>
     </row>
-    <row r="896" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="18"/>
@@ -24022,7 +24051,7 @@
       <c r="W896" s="9"/>
       <c r="X896" s="9"/>
     </row>
-    <row r="897" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="18"/>
@@ -24048,7 +24077,7 @@
       <c r="W897" s="9"/>
       <c r="X897" s="9"/>
     </row>
-    <row r="898" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="18"/>
@@ -24074,7 +24103,7 @@
       <c r="W898" s="9"/>
       <c r="X898" s="9"/>
     </row>
-    <row r="899" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="18"/>
@@ -24100,7 +24129,7 @@
       <c r="W899" s="9"/>
       <c r="X899" s="9"/>
     </row>
-    <row r="900" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="18"/>
@@ -24126,7 +24155,7 @@
       <c r="W900" s="9"/>
       <c r="X900" s="9"/>
     </row>
-    <row r="901" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="18"/>
@@ -24152,7 +24181,7 @@
       <c r="W901" s="9"/>
       <c r="X901" s="9"/>
     </row>
-    <row r="902" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="18"/>
@@ -24178,7 +24207,7 @@
       <c r="W902" s="9"/>
       <c r="X902" s="9"/>
     </row>
-    <row r="903" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="18"/>
@@ -24204,7 +24233,7 @@
       <c r="W903" s="9"/>
       <c r="X903" s="9"/>
     </row>
-    <row r="904" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="18"/>
@@ -24230,7 +24259,7 @@
       <c r="W904" s="9"/>
       <c r="X904" s="9"/>
     </row>
-    <row r="905" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="18"/>
@@ -24256,7 +24285,7 @@
       <c r="W905" s="9"/>
       <c r="X905" s="9"/>
     </row>
-    <row r="906" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="18"/>
@@ -24282,7 +24311,7 @@
       <c r="W906" s="9"/>
       <c r="X906" s="9"/>
     </row>
-    <row r="907" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="18"/>
@@ -24308,7 +24337,7 @@
       <c r="W907" s="9"/>
       <c r="X907" s="9"/>
     </row>
-    <row r="908" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="18"/>
@@ -24334,7 +24363,7 @@
       <c r="W908" s="9"/>
       <c r="X908" s="9"/>
     </row>
-    <row r="909" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="18"/>
@@ -24360,7 +24389,7 @@
       <c r="W909" s="9"/>
       <c r="X909" s="9"/>
     </row>
-    <row r="910" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="18"/>
@@ -24386,7 +24415,7 @@
       <c r="W910" s="9"/>
       <c r="X910" s="9"/>
     </row>
-    <row r="911" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="18"/>
@@ -24412,7 +24441,7 @@
       <c r="W911" s="9"/>
       <c r="X911" s="9"/>
     </row>
-    <row r="912" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="18"/>
@@ -24438,7 +24467,7 @@
       <c r="W912" s="9"/>
       <c r="X912" s="9"/>
     </row>
-    <row r="913" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="18"/>
@@ -24464,7 +24493,7 @@
       <c r="W913" s="9"/>
       <c r="X913" s="9"/>
     </row>
-    <row r="914" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="18"/>
@@ -24490,7 +24519,7 @@
       <c r="W914" s="9"/>
       <c r="X914" s="9"/>
     </row>
-    <row r="915" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="18"/>
@@ -24516,7 +24545,7 @@
       <c r="W915" s="9"/>
       <c r="X915" s="9"/>
     </row>
-    <row r="916" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="18"/>
@@ -24542,7 +24571,7 @@
       <c r="W916" s="9"/>
       <c r="X916" s="9"/>
     </row>
-    <row r="917" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="18"/>
@@ -24568,7 +24597,7 @@
       <c r="W917" s="9"/>
       <c r="X917" s="9"/>
     </row>
-    <row r="918" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="18"/>
@@ -24594,7 +24623,7 @@
       <c r="W918" s="9"/>
       <c r="X918" s="9"/>
     </row>
-    <row r="919" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="18"/>
@@ -24620,7 +24649,7 @@
       <c r="W919" s="9"/>
       <c r="X919" s="9"/>
     </row>
-    <row r="920" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="18"/>
@@ -24646,7 +24675,7 @@
       <c r="W920" s="9"/>
       <c r="X920" s="9"/>
     </row>
-    <row r="921" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="18"/>
@@ -24672,7 +24701,7 @@
       <c r="W921" s="9"/>
       <c r="X921" s="9"/>
     </row>
-    <row r="922" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="18"/>
@@ -24698,7 +24727,7 @@
       <c r="W922" s="9"/>
       <c r="X922" s="9"/>
     </row>
-    <row r="923" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="18"/>
@@ -24724,7 +24753,7 @@
       <c r="W923" s="9"/>
       <c r="X923" s="9"/>
     </row>
-    <row r="924" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="18"/>
@@ -24750,7 +24779,7 @@
       <c r="W924" s="9"/>
       <c r="X924" s="9"/>
     </row>
-    <row r="925" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="18"/>
@@ -24776,7 +24805,7 @@
       <c r="W925" s="9"/>
       <c r="X925" s="9"/>
     </row>
-    <row r="926" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="18"/>
@@ -24802,7 +24831,7 @@
       <c r="W926" s="9"/>
       <c r="X926" s="9"/>
     </row>
-    <row r="927" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="18"/>
@@ -24828,7 +24857,7 @@
       <c r="W927" s="9"/>
       <c r="X927" s="9"/>
     </row>
-    <row r="928" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="18"/>
@@ -24854,7 +24883,7 @@
       <c r="W928" s="9"/>
       <c r="X928" s="9"/>
     </row>
-    <row r="929" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="18"/>
@@ -24880,7 +24909,7 @@
       <c r="W929" s="9"/>
       <c r="X929" s="9"/>
     </row>
-    <row r="930" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="18"/>
@@ -24906,7 +24935,7 @@
       <c r="W930" s="9"/>
       <c r="X930" s="9"/>
     </row>
-    <row r="931" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="18"/>
@@ -24932,7 +24961,7 @@
       <c r="W931" s="9"/>
       <c r="X931" s="9"/>
     </row>
-    <row r="932" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="18"/>
@@ -24958,7 +24987,7 @@
       <c r="W932" s="9"/>
       <c r="X932" s="9"/>
     </row>
-    <row r="933" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="18"/>
@@ -24984,7 +25013,7 @@
       <c r="W933" s="9"/>
       <c r="X933" s="9"/>
     </row>
-    <row r="934" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="18"/>
@@ -25010,7 +25039,7 @@
       <c r="W934" s="9"/>
       <c r="X934" s="9"/>
     </row>
-    <row r="935" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="18"/>
@@ -25036,7 +25065,7 @@
       <c r="W935" s="9"/>
       <c r="X935" s="9"/>
     </row>
-    <row r="936" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="18"/>
@@ -25062,7 +25091,7 @@
       <c r="W936" s="9"/>
       <c r="X936" s="9"/>
     </row>
-    <row r="937" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="18"/>
@@ -25088,7 +25117,7 @@
       <c r="W937" s="9"/>
       <c r="X937" s="9"/>
     </row>
-    <row r="938" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="18"/>
@@ -25114,7 +25143,7 @@
       <c r="W938" s="9"/>
       <c r="X938" s="9"/>
     </row>
-    <row r="939" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="18"/>
@@ -25140,7 +25169,7 @@
       <c r="W939" s="9"/>
       <c r="X939" s="9"/>
     </row>
-    <row r="940" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="18"/>
@@ -25166,7 +25195,7 @@
       <c r="W940" s="9"/>
       <c r="X940" s="9"/>
     </row>
-    <row r="941" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="18"/>
@@ -25192,7 +25221,7 @@
       <c r="W941" s="9"/>
       <c r="X941" s="9"/>
     </row>
-    <row r="942" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="18"/>
@@ -25218,7 +25247,7 @@
       <c r="W942" s="9"/>
       <c r="X942" s="9"/>
     </row>
-    <row r="943" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="18"/>
@@ -25244,7 +25273,7 @@
       <c r="W943" s="9"/>
       <c r="X943" s="9"/>
     </row>
-    <row r="944" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="18"/>
@@ -25270,7 +25299,7 @@
       <c r="W944" s="9"/>
       <c r="X944" s="9"/>
     </row>
-    <row r="945" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="18"/>
@@ -25296,7 +25325,7 @@
       <c r="W945" s="9"/>
       <c r="X945" s="9"/>
     </row>
-    <row r="946" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="18"/>
@@ -25322,7 +25351,7 @@
       <c r="W946" s="9"/>
       <c r="X946" s="9"/>
     </row>
-    <row r="947" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="18"/>
@@ -25348,7 +25377,7 @@
       <c r="W947" s="9"/>
       <c r="X947" s="9"/>
     </row>
-    <row r="948" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="18"/>
@@ -25374,7 +25403,7 @@
       <c r="W948" s="9"/>
       <c r="X948" s="9"/>
     </row>
-    <row r="949" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="18"/>
@@ -25400,7 +25429,7 @@
       <c r="W949" s="9"/>
       <c r="X949" s="9"/>
     </row>
-    <row r="950" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="18"/>
@@ -25426,7 +25455,7 @@
       <c r="W950" s="9"/>
       <c r="X950" s="9"/>
     </row>
-    <row r="951" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="18"/>
@@ -25452,7 +25481,7 @@
       <c r="W951" s="9"/>
       <c r="X951" s="9"/>
     </row>
-    <row r="952" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="18"/>
@@ -25478,7 +25507,7 @@
       <c r="W952" s="9"/>
       <c r="X952" s="9"/>
     </row>
-    <row r="953" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="18"/>
@@ -25504,7 +25533,7 @@
       <c r="W953" s="9"/>
       <c r="X953" s="9"/>
     </row>
-    <row r="954" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="18"/>
@@ -25530,7 +25559,7 @@
       <c r="W954" s="9"/>
       <c r="X954" s="9"/>
     </row>
-    <row r="955" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="18"/>
@@ -25556,7 +25585,7 @@
       <c r="W955" s="9"/>
       <c r="X955" s="9"/>
     </row>
-    <row r="956" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="18"/>
@@ -25582,7 +25611,7 @@
       <c r="W956" s="9"/>
       <c r="X956" s="9"/>
     </row>
-    <row r="957" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="18"/>
@@ -25608,7 +25637,7 @@
       <c r="W957" s="9"/>
       <c r="X957" s="9"/>
     </row>
-    <row r="958" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="18"/>
@@ -25634,7 +25663,7 @@
       <c r="W958" s="9"/>
       <c r="X958" s="9"/>
     </row>
-    <row r="959" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="18"/>
@@ -25660,7 +25689,7 @@
       <c r="W959" s="9"/>
       <c r="X959" s="9"/>
     </row>
-    <row r="960" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="18"/>
@@ -25686,7 +25715,7 @@
       <c r="W960" s="9"/>
       <c r="X960" s="9"/>
     </row>
-    <row r="961" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="18"/>
@@ -25712,7 +25741,7 @@
       <c r="W961" s="9"/>
       <c r="X961" s="9"/>
     </row>
-    <row r="962" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="18"/>
@@ -25738,7 +25767,7 @@
       <c r="W962" s="9"/>
       <c r="X962" s="9"/>
     </row>
-    <row r="963" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="18"/>
@@ -25764,7 +25793,7 @@
       <c r="W963" s="9"/>
       <c r="X963" s="9"/>
     </row>
-    <row r="964" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="18"/>
@@ -25790,7 +25819,7 @@
       <c r="W964" s="9"/>
       <c r="X964" s="9"/>
     </row>
-    <row r="965" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="18"/>
@@ -25816,7 +25845,7 @@
       <c r="W965" s="9"/>
       <c r="X965" s="9"/>
     </row>
-    <row r="966" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="18"/>
@@ -25842,7 +25871,7 @@
       <c r="W966" s="9"/>
       <c r="X966" s="9"/>
     </row>
-    <row r="967" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="18"/>
@@ -25868,7 +25897,7 @@
       <c r="W967" s="9"/>
       <c r="X967" s="9"/>
     </row>
-    <row r="968" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="18"/>
@@ -25894,7 +25923,7 @@
       <c r="W968" s="9"/>
       <c r="X968" s="9"/>
     </row>
-    <row r="969" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="18"/>
@@ -25920,7 +25949,7 @@
       <c r="W969" s="9"/>
       <c r="X969" s="9"/>
     </row>
-    <row r="970" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="18"/>
@@ -25946,7 +25975,7 @@
       <c r="W970" s="9"/>
       <c r="X970" s="9"/>
     </row>
-    <row r="971" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="18"/>
@@ -25972,7 +26001,7 @@
       <c r="W971" s="9"/>
       <c r="X971" s="9"/>
     </row>
-    <row r="972" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="18"/>
@@ -25998,7 +26027,7 @@
       <c r="W972" s="9"/>
       <c r="X972" s="9"/>
     </row>
-    <row r="973" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="18"/>
@@ -26024,7 +26053,7 @@
       <c r="W973" s="9"/>
       <c r="X973" s="9"/>
     </row>
-    <row r="974" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="18"/>
@@ -26050,7 +26079,7 @@
       <c r="W974" s="9"/>
       <c r="X974" s="9"/>
     </row>
-    <row r="975" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="18"/>
@@ -26076,7 +26105,7 @@
       <c r="W975" s="9"/>
       <c r="X975" s="9"/>
     </row>
-    <row r="976" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="18"/>
@@ -26102,7 +26131,7 @@
       <c r="W976" s="9"/>
       <c r="X976" s="9"/>
     </row>
-    <row r="977" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="18"/>
@@ -26128,7 +26157,7 @@
       <c r="W977" s="9"/>
       <c r="X977" s="9"/>
     </row>
-    <row r="978" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="18"/>
@@ -26154,7 +26183,7 @@
       <c r="W978" s="9"/>
       <c r="X978" s="9"/>
     </row>
-    <row r="979" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="18"/>
@@ -26180,7 +26209,7 @@
       <c r="W979" s="9"/>
       <c r="X979" s="9"/>
     </row>
-    <row r="980" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="18"/>
@@ -26206,7 +26235,7 @@
       <c r="W980" s="9"/>
       <c r="X980" s="9"/>
     </row>
-    <row r="981" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="18"/>
@@ -26232,7 +26261,7 @@
       <c r="W981" s="9"/>
       <c r="X981" s="9"/>
     </row>
-    <row r="982" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="18"/>
@@ -26258,7 +26287,7 @@
       <c r="W982" s="9"/>
       <c r="X982" s="9"/>
     </row>
-    <row r="983" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="18"/>
@@ -26284,7 +26313,7 @@
       <c r="W983" s="9"/>
       <c r="X983" s="9"/>
     </row>
-    <row r="984" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="18"/>
@@ -26310,7 +26339,7 @@
       <c r="W984" s="9"/>
       <c r="X984" s="9"/>
     </row>
-    <row r="985" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="18"/>
@@ -26336,7 +26365,7 @@
       <c r="W985" s="9"/>
       <c r="X985" s="9"/>
     </row>
-    <row r="986" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="18"/>
@@ -26362,7 +26391,7 @@
       <c r="W986" s="9"/>
       <c r="X986" s="9"/>
     </row>
-    <row r="987" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="18"/>
@@ -26388,7 +26417,7 @@
       <c r="W987" s="9"/>
       <c r="X987" s="9"/>
     </row>
-    <row r="988" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="18"/>
@@ -26414,7 +26443,7 @@
       <c r="W988" s="9"/>
       <c r="X988" s="9"/>
     </row>
-    <row r="989" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="18"/>
@@ -26440,7 +26469,7 @@
       <c r="W989" s="9"/>
       <c r="X989" s="9"/>
     </row>
-    <row r="990" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="18"/>
@@ -26466,7 +26495,7 @@
       <c r="W990" s="9"/>
       <c r="X990" s="9"/>
     </row>
-    <row r="991" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="18"/>
